--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislav/Documents/GitHub/water/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95A94D4-2C97-6F4B-8DD5-2D750428158C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43B8A69-44B8-D34D-9122-AB385344EC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СБОР ДАННЫХ" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,8 @@
     <sheet name="15.06.22" sheetId="13" r:id="rId13"/>
     <sheet name="4.07.22" sheetId="14" r:id="rId14"/>
     <sheet name="26.10.22" sheetId="15" r:id="rId15"/>
-    <sheet name="24.01.23" sheetId="17" r:id="rId16"/>
+    <sheet name="21.01.23" sheetId="18" r:id="rId16"/>
+    <sheet name="22.01.23" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -289,47 +290,8 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Админ</author>
-  </authors>
-  <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>цена по акции. Факт 300р</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>цена по акции. Факт 240р</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="95">
   <si>
     <t>дата</t>
   </si>
@@ -617,6 +579,39 @@
   </si>
   <si>
     <t>цена на дату:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изм.цены с </t>
+  </si>
+  <si>
+    <t>прошлой даты</t>
+  </si>
+  <si>
+    <t>Аквамобиль Аква Ирендык</t>
+  </si>
+  <si>
+    <t>Аквамобил Архыз</t>
+  </si>
+  <si>
+    <t>Аквамобил Артенза</t>
+  </si>
+  <si>
+    <t>Аквамобил Кукузар</t>
+  </si>
+  <si>
+    <t>Аквамобил сосновская</t>
+  </si>
+  <si>
+    <t>Горный ОАЗИС</t>
+  </si>
+  <si>
+    <t>Люкс вода Люксик</t>
+  </si>
+  <si>
+    <t>Ниагара</t>
+  </si>
+  <si>
+    <t>Ниагара Премиум Кавказ</t>
   </si>
 </sst>
 </file>
@@ -687,14 +682,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,8 +721,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -932,13 +934,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1092,6 +1255,96 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2801,9 +3054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5561,24 +5814,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9D5B8F-66EC-6741-8FC6-FC1D63B28593}">
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="2" customWidth="1"/>
-    <col min="9" max="13" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
         <v>72</v>
@@ -5587,119 +5835,172 @@
         <v>73</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="K1" s="13" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="M1" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11">
-        <v>200</v>
-      </c>
-      <c r="C2" s="11">
-        <v>230</v>
-      </c>
-      <c r="D2" s="11">
-        <v>240</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="B2" s="7">
+        <f>MIN(D2:S2)</f>
+        <v>200</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86">
+        <v>300</v>
+      </c>
+      <c r="E2" s="86">
+        <v>550</v>
+      </c>
+      <c r="F2" s="86">
+        <v>250</v>
+      </c>
+      <c r="G2" s="86">
+        <v>250</v>
+      </c>
+      <c r="H2" s="86">
+        <v>250</v>
+      </c>
+      <c r="I2" s="86">
+        <v>220</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="87">
+        <v>200</v>
+      </c>
+      <c r="M2" s="76">
+        <v>285</v>
+      </c>
+      <c r="N2" s="77">
+        <v>323</v>
+      </c>
+      <c r="O2" s="77">
+        <v>249</v>
+      </c>
+      <c r="P2" s="77">
         <v>265</v>
       </c>
-      <c r="F2" s="11">
-        <v>250</v>
-      </c>
-      <c r="G2" s="11">
-        <v>200</v>
-      </c>
-      <c r="H2" s="11">
-        <f>170+90</f>
-        <v>260</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="11">
-        <v>220</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="31">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="Q2" s="94">
+        <v>449</v>
+      </c>
+      <c r="R2" s="77">
+        <v>255</v>
+      </c>
+      <c r="S2" s="78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="88" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="7">
-        <v>160</v>
-      </c>
-      <c r="C3" s="7">
-        <v>200</v>
-      </c>
+        <f>MIN(D3:S3)</f>
+        <v>140</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="7">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="E3" s="7">
-        <v>245</v>
+        <v>525</v>
       </c>
       <c r="F3" s="7">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G3" s="7">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="H3" s="7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="I3" s="7">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="J3" s="7">
         <v>175</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="32">
+      <c r="K3" s="7">
+        <v>170</v>
+      </c>
+      <c r="L3" s="65">
         <v>140</v>
       </c>
-      <c r="M3" s="32">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="M3" s="69">
+        <v>228</v>
+      </c>
+      <c r="N3" s="71">
+        <v>285</v>
+      </c>
+      <c r="O3" s="71">
+        <v>209</v>
+      </c>
+      <c r="P3" s="71">
+        <v>245</v>
+      </c>
+      <c r="Q3" s="95">
+        <v>430</v>
+      </c>
+      <c r="R3" s="71">
+        <v>255</v>
+      </c>
+      <c r="S3" s="79">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="88"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -5710,12 +6011,18 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-    </row>
-    <row r="5" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>82</v>
+      <c r="L4" s="65"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="80"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="89" t="s">
+        <v>84</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -5727,292 +6034,510 @@
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-    </row>
-    <row r="6" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44">
-        <f>'4.07.22'!A20</f>
-        <v>44496</v>
+      <c r="L5" s="66"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="80"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="90" t="s">
+        <v>85</v>
       </c>
       <c r="B6" s="7">
         <f>'4.07.22'!B20</f>
         <v>200</v>
       </c>
-      <c r="C6" s="7">
-        <f>'4.07.22'!C20</f>
-        <v>200</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="80"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="90"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="80"/>
+    </row>
+    <row r="8" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7">
+        <f>MIN(D8:S8)</f>
+        <v>250</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="92">
+        <v>420</v>
+      </c>
+      <c r="J8" s="92">
+        <v>400</v>
+      </c>
+      <c r="K8" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="93">
+        <v>250</v>
+      </c>
+      <c r="M8" s="81">
+        <v>290</v>
+      </c>
+      <c r="N8" s="82">
+        <v>290</v>
+      </c>
+      <c r="O8" s="82">
+        <v>500</v>
+      </c>
+      <c r="P8" s="82">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="82">
+        <v>500</v>
+      </c>
+      <c r="R8" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="84">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0735D1-8134-8C46-97D2-35E101395E89}">
+  <dimension ref="A1:S8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7">
+        <f>MIN(D2:S2)</f>
+        <v>200</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86">
+        <v>300</v>
+      </c>
+      <c r="E2" s="86">
+        <v>550</v>
+      </c>
+      <c r="F2" s="86">
+        <v>250</v>
+      </c>
+      <c r="G2" s="86">
+        <v>250</v>
+      </c>
+      <c r="H2" s="86">
+        <v>250</v>
+      </c>
+      <c r="I2" s="86">
+        <v>220</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="87">
+        <v>200</v>
+      </c>
+      <c r="M2" s="76">
+        <v>285</v>
+      </c>
+      <c r="N2" s="77">
+        <v>323</v>
+      </c>
+      <c r="O2" s="77">
+        <v>249</v>
+      </c>
+      <c r="P2" s="77">
+        <v>265</v>
+      </c>
+      <c r="Q2" s="94">
+        <v>449</v>
+      </c>
+      <c r="R2" s="77">
+        <v>255</v>
+      </c>
+      <c r="S2" s="78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7">
+        <f>MIN(D3:S3)</f>
+        <v>140</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
+        <v>275</v>
+      </c>
+      <c r="E3" s="7">
+        <v>525</v>
+      </c>
+      <c r="F3" s="7">
+        <v>175</v>
+      </c>
+      <c r="G3" s="7">
+        <v>225</v>
+      </c>
+      <c r="H3" s="7">
+        <v>200</v>
+      </c>
+      <c r="I3" s="7">
+        <v>175</v>
+      </c>
+      <c r="J3" s="7">
+        <v>175</v>
+      </c>
+      <c r="K3" s="7">
+        <v>170</v>
+      </c>
+      <c r="L3" s="65">
+        <v>140</v>
+      </c>
+      <c r="M3" s="69">
+        <v>228</v>
+      </c>
+      <c r="N3" s="71">
+        <v>285</v>
+      </c>
+      <c r="O3" s="71">
+        <v>209</v>
+      </c>
+      <c r="P3" s="71">
+        <v>245</v>
+      </c>
+      <c r="Q3" s="95">
+        <v>430</v>
+      </c>
+      <c r="R3" s="71">
+        <v>255</v>
+      </c>
+      <c r="S3" s="79">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="88"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="80"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="80"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="7">
+        <f>B3- '22.01.23'!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="7">
-        <f>'4.07.22'!D20</f>
-        <v>200</v>
+        <f>D3- '22.01.23'!D3</f>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
-        <f>'4.07.22'!E20</f>
-        <v>200</v>
+        <f>E3- '22.01.23'!E3</f>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
-        <f>'4.07.22'!F20</f>
-        <v>200</v>
+        <f>F3- '22.01.23'!F3</f>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
-        <f>'4.07.22'!G20</f>
-        <v>200</v>
+        <f>G3- '22.01.23'!G3</f>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
-        <f>'4.07.22'!H20</f>
-        <v>200</v>
+        <f>H3- '22.01.23'!H3</f>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <f>'4.07.22'!I20</f>
-        <v>200</v>
+        <f>I3- '22.01.23'!I3</f>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
-        <f>'4.07.22'!J20</f>
-        <v>200</v>
+        <f>J3- '22.01.23'!J3</f>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
-        <f>'4.07.22'!K20</f>
-        <v>200</v>
+        <f>K3- '22.01.23'!K3</f>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
-        <f>'4.07.22'!L20</f>
-        <v>200</v>
-      </c>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+        <f>L3- '22.01.23'!L3</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f>M3- '22.01.23'!M3</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <f>N3- '22.01.23'!N3</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <f>O3- '22.01.23'!O3</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <f>P3- '22.01.23'!P3</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>Q3- '22.01.23'!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <f>R3- '22.01.23'!R3</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f>S3- '22.01.23'!S3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="90"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="80"/>
+    </row>
+    <row r="8" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="7">
+        <f>MIN(D8:S8)</f>
+        <v>250</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="92">
+        <v>420</v>
+      </c>
+      <c r="J8" s="92">
+        <v>400</v>
+      </c>
+      <c r="K8" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="93">
+        <v>250</v>
+      </c>
+      <c r="M8" s="81">
+        <v>290</v>
+      </c>
+      <c r="N8" s="82">
+        <v>290</v>
+      </c>
+      <c r="O8" s="82">
+        <v>500</v>
+      </c>
+      <c r="P8" s="82">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="82">
+        <v>500</v>
+      </c>
+      <c r="R8" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="84">
         <v>350</v>
       </c>
-      <c r="C8" s="15">
-        <v>500</v>
-      </c>
-      <c r="D8" s="15">
-        <f>580/2</f>
-        <v>290</v>
-      </c>
-      <c r="E8" s="15">
-        <v>500</v>
-      </c>
-      <c r="F8" s="15">
-        <v>350</v>
-      </c>
-      <c r="G8" s="15">
-        <v>350</v>
-      </c>
-      <c r="H8" s="15">
-        <v>340</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="15">
-        <v>400</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="35">
-        <v>250</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:A12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -514,7 +514,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -663,11 +663,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -749,15 +744,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2044,7 +2035,7 @@
       </c>
     </row>
     <row r="9" hidden="1" ht="58" customHeight="1">
-      <c r="A9" s="62" t="inlineStr">
+      <c r="A9" s="91" t="inlineStr">
         <is>
           <t>Акции</t>
         </is>
@@ -2110,7 +2101,7 @@
       <c r="L9" s="19" t="n"/>
     </row>
     <row r="10" hidden="1" ht="58" customHeight="1">
-      <c r="A10" s="63" t="n"/>
+      <c r="A10" s="92" t="n"/>
       <c r="B10" s="20" t="inlineStr">
         <is>
           <t>Кулер напольный с НАГРЕВОМ
@@ -2172,7 +2163,7 @@
       <c r="L10" s="19" t="n"/>
     </row>
     <row r="11" hidden="1" ht="43.5" customHeight="1">
-      <c r="A11" s="63" t="n"/>
+      <c r="A11" s="92" t="n"/>
       <c r="B11" s="20" t="inlineStr">
         <is>
           <t>Помпа мини + 2 по 19+2 тары 1000₽</t>
@@ -2228,7 +2219,7 @@
       </c>
     </row>
     <row r="12" hidden="1" ht="29.5" customHeight="1" thickBot="1">
-      <c r="A12" s="64" t="n"/>
+      <c r="A12" s="93" t="n"/>
       <c r="B12" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">2% бонусами </t>
@@ -2676,7 +2667,7 @@
       </c>
     </row>
     <row r="9" hidden="1" ht="58" customHeight="1">
-      <c r="A9" s="62" t="inlineStr">
+      <c r="A9" s="91" t="inlineStr">
         <is>
           <t>Акции</t>
         </is>
@@ -2743,7 +2734,7 @@
       <c r="M9" s="19" t="n"/>
     </row>
     <row r="10" hidden="1" ht="58" customHeight="1">
-      <c r="A10" s="63" t="n"/>
+      <c r="A10" s="92" t="n"/>
       <c r="B10" s="20" t="inlineStr">
         <is>
           <t>Кулер напольный с НАГРЕВОМ
@@ -2806,7 +2797,7 @@
       <c r="M10" s="19" t="n"/>
     </row>
     <row r="11" hidden="1" ht="43.5" customHeight="1">
-      <c r="A11" s="63" t="n"/>
+      <c r="A11" s="92" t="n"/>
       <c r="B11" s="20" t="inlineStr">
         <is>
           <t>Помпа мини + 2 по 19+2 тары 1000₽</t>
@@ -2863,7 +2854,7 @@
       </c>
     </row>
     <row r="12" hidden="1" ht="29.5" customHeight="1" thickBot="1">
-      <c r="A12" s="64" t="n"/>
+      <c r="A12" s="93" t="n"/>
       <c r="B12" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">2% бонусами </t>
@@ -3304,7 +3295,7 @@
       </c>
     </row>
     <row r="9" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A9" s="62" t="inlineStr">
+      <c r="A9" s="91" t="inlineStr">
         <is>
           <t>Акции</t>
         </is>
@@ -3370,7 +3361,7 @@
       <c r="L9" s="19" t="n"/>
     </row>
     <row r="10" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A10" s="63" t="n"/>
+      <c r="A10" s="92" t="n"/>
       <c r="B10" s="20" t="inlineStr">
         <is>
           <t>Кулер напольный с НАГРЕВОМ
@@ -3432,7 +3423,7 @@
       <c r="L10" s="19" t="n"/>
     </row>
     <row r="11" ht="43.5" customHeight="1">
-      <c r="A11" s="63" t="n"/>
+      <c r="A11" s="92" t="n"/>
       <c r="B11" s="20" t="inlineStr">
         <is>
           <t>Помпа мини + 2 по 19+2 тары 1000₽</t>
@@ -3488,7 +3479,7 @@
       </c>
     </row>
     <row r="12" ht="29.5" customHeight="1" thickBot="1">
-      <c r="A12" s="64" t="n"/>
+      <c r="A12" s="93" t="n"/>
       <c r="B12" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">2% бонусами </t>
@@ -3938,7 +3929,7 @@
       </c>
     </row>
     <row r="9" hidden="1" ht="58" customHeight="1">
-      <c r="A9" s="62" t="inlineStr">
+      <c r="A9" s="91" t="inlineStr">
         <is>
           <t>Акции</t>
         </is>
@@ -4005,7 +3996,7 @@
       <c r="M9" s="19" t="n"/>
     </row>
     <row r="10" hidden="1" ht="58" customHeight="1">
-      <c r="A10" s="63" t="n"/>
+      <c r="A10" s="92" t="n"/>
       <c r="B10" s="20" t="inlineStr">
         <is>
           <t>Кулер напольный с НАГРЕВОМ
@@ -4068,7 +4059,7 @@
       <c r="M10" s="19" t="n"/>
     </row>
     <row r="11" hidden="1" ht="43.5" customHeight="1">
-      <c r="A11" s="63" t="n"/>
+      <c r="A11" s="92" t="n"/>
       <c r="B11" s="20" t="inlineStr">
         <is>
           <t>Помпа мини + 2 по 19+2 тары 1000₽</t>
@@ -4125,7 +4116,7 @@
       </c>
     </row>
     <row r="12" hidden="1" ht="29.5" customHeight="1" thickBot="1">
-      <c r="A12" s="64" t="n"/>
+      <c r="A12" s="93" t="n"/>
       <c r="B12" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">2% бонусами </t>
@@ -4496,7 +4487,7 @@
       </c>
     </row>
     <row r="7" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A7" s="62" t="inlineStr">
+      <c r="A7" s="91" t="inlineStr">
         <is>
           <t>Акции</t>
         </is>
@@ -4563,7 +4554,7 @@
       <c r="M7" s="19" t="n"/>
     </row>
     <row r="8" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A8" s="63" t="n"/>
+      <c r="A8" s="92" t="n"/>
       <c r="B8" s="20" t="inlineStr">
         <is>
           <t>Кулер напольный с НАГРЕВОМ
@@ -4626,7 +4617,7 @@
       <c r="M8" s="19" t="n"/>
     </row>
     <row r="9" ht="43.5" customHeight="1">
-      <c r="A9" s="63" t="n"/>
+      <c r="A9" s="92" t="n"/>
       <c r="B9" s="20" t="inlineStr">
         <is>
           <t>Помпа мини + 2 по 19+2 тары 1000₽</t>
@@ -4683,7 +4674,7 @@
       </c>
     </row>
     <row r="10" ht="29.5" customHeight="1" thickBot="1">
-      <c r="A10" s="64" t="n"/>
+      <c r="A10" s="93" t="n"/>
       <c r="B10" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">2% бонусами </t>
@@ -6016,7 +6007,7 @@
       </c>
     </row>
     <row r="9" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A9" s="62" t="inlineStr">
+      <c r="A9" s="91" t="inlineStr">
         <is>
           <t>Акции</t>
         </is>
@@ -6083,7 +6074,7 @@
       <c r="M9" s="19" t="n"/>
     </row>
     <row r="10" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A10" s="63" t="n"/>
+      <c r="A10" s="92" t="n"/>
       <c r="B10" s="20" t="inlineStr">
         <is>
           <t>Кулер напольный с НАГРЕВОМ
@@ -6146,7 +6137,7 @@
       <c r="M10" s="19" t="n"/>
     </row>
     <row r="11" ht="43.5" customHeight="1">
-      <c r="A11" s="63" t="n"/>
+      <c r="A11" s="92" t="n"/>
       <c r="B11" s="20" t="inlineStr">
         <is>
           <t>Помпа мини + 2 по 19+2 тары 1000₽</t>
@@ -6203,7 +6194,7 @@
       </c>
     </row>
     <row r="12" ht="29.5" customHeight="1" thickBot="1">
-      <c r="A12" s="64" t="n"/>
+      <c r="A12" s="93" t="n"/>
       <c r="B12" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">2% бонусами </t>
@@ -6320,17 +6311,17 @@
           <t>Аквамобил Архыз</t>
         </is>
       </c>
-      <c r="F1" s="67" t="inlineStr">
+      <c r="F1" s="64" t="inlineStr">
         <is>
           <t>Аквамобил Артенза</t>
         </is>
       </c>
-      <c r="G1" s="67" t="inlineStr">
+      <c r="G1" s="64" t="inlineStr">
         <is>
           <t>Аквамобил Кукузар</t>
         </is>
       </c>
-      <c r="H1" s="67" t="inlineStr">
+      <c r="H1" s="64" t="inlineStr">
         <is>
           <t>Аквамобил сосновская</t>
         </is>
@@ -6355,44 +6346,44 @@
           <t>Любимая+</t>
         </is>
       </c>
-      <c r="M1" s="68" t="inlineStr">
+      <c r="M1" s="65" t="inlineStr">
         <is>
           <t>Люкс вода</t>
         </is>
       </c>
-      <c r="N1" s="73" t="inlineStr">
+      <c r="N1" s="70" t="inlineStr">
         <is>
           <t>Люкс вода Люксик</t>
         </is>
       </c>
-      <c r="O1" s="74" t="inlineStr">
+      <c r="O1" s="71" t="inlineStr">
         <is>
           <t>Ниагара</t>
         </is>
       </c>
-      <c r="P1" s="74" t="inlineStr">
+      <c r="P1" s="71" t="inlineStr">
         <is>
           <t>Ниагара Премиум</t>
         </is>
       </c>
-      <c r="Q1" s="74" t="inlineStr">
+      <c r="Q1" s="71" t="inlineStr">
         <is>
           <t>Ниагара Премиум Кавказ</t>
         </is>
       </c>
-      <c r="R1" s="74" t="inlineStr">
+      <c r="R1" s="71" t="inlineStr">
         <is>
           <t>Власов ключ</t>
         </is>
       </c>
-      <c r="S1" s="75" t="inlineStr">
+      <c r="S1" s="72" t="inlineStr">
         <is>
           <t>Живая капля</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="85" t="inlineStr">
+      <c r="A2" s="82" t="inlineStr">
         <is>
           <t>19л 1шт</t>
         </is>
@@ -6401,62 +6392,62 @@
         <f>MIN(D2:S2)</f>
         <v/>
       </c>
-      <c r="C2" s="86" t="n"/>
-      <c r="D2" s="86" t="n">
+      <c r="C2" s="83" t="n"/>
+      <c r="D2" s="83" t="n">
         <v>300</v>
       </c>
-      <c r="E2" s="86" t="n">
+      <c r="E2" s="83" t="n">
         <v>550</v>
       </c>
-      <c r="F2" s="86" t="n">
+      <c r="F2" s="83" t="n">
         <v>250</v>
       </c>
-      <c r="G2" s="86" t="n">
+      <c r="G2" s="83" t="n">
         <v>250</v>
       </c>
-      <c r="H2" s="86" t="n">
+      <c r="H2" s="83" t="n">
         <v>250</v>
       </c>
-      <c r="I2" s="86" t="n">
+      <c r="I2" s="83" t="n">
         <v>220</v>
       </c>
-      <c r="J2" s="86" t="inlineStr">
+      <c r="J2" s="83" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K2" s="86" t="inlineStr">
+      <c r="K2" s="83" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L2" s="87" t="n">
-        <v>200</v>
-      </c>
-      <c r="M2" s="76" t="n">
+      <c r="L2" s="84" t="n">
+        <v>200</v>
+      </c>
+      <c r="M2" s="73" t="n">
         <v>285</v>
       </c>
-      <c r="N2" s="94" t="n">
+      <c r="N2" s="74" t="n">
         <v>323</v>
       </c>
-      <c r="O2" s="94" t="n">
+      <c r="O2" s="74" t="n">
         <v>249</v>
       </c>
-      <c r="P2" s="94" t="n">
+      <c r="P2" s="74" t="n">
         <v>265</v>
       </c>
-      <c r="Q2" s="94" t="n">
+      <c r="Q2" s="74" t="n">
         <v>449</v>
       </c>
-      <c r="R2" s="94" t="n">
+      <c r="R2" s="74" t="n">
         <v>255</v>
       </c>
-      <c r="S2" s="78" t="n">
+      <c r="S2" s="75" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="88" t="inlineStr">
+      <c r="A3" s="85" t="inlineStr">
         <is>
           <t>19л от 2х</t>
         </is>
@@ -6490,33 +6481,33 @@
       <c r="K3" s="7" t="n">
         <v>170</v>
       </c>
-      <c r="L3" s="65" t="n">
+      <c r="L3" s="62" t="n">
         <v>140</v>
       </c>
-      <c r="M3" s="69" t="n">
+      <c r="M3" s="66" t="n">
         <v>228</v>
       </c>
-      <c r="N3" s="95" t="n">
+      <c r="N3" s="68" t="n">
         <v>285</v>
       </c>
-      <c r="O3" s="95" t="n">
+      <c r="O3" s="68" t="n">
         <v>209</v>
       </c>
-      <c r="P3" s="95" t="n">
+      <c r="P3" s="68" t="n">
         <v>245</v>
       </c>
-      <c r="Q3" s="95" t="n">
+      <c r="Q3" s="68" t="n">
         <v>430</v>
       </c>
-      <c r="R3" s="95" t="n">
+      <c r="R3" s="68" t="n">
         <v>255</v>
       </c>
-      <c r="S3" s="79" t="n">
+      <c r="S3" s="76" t="n">
         <v>170</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="88" t="n"/>
+      <c r="A4" s="85" t="n"/>
       <c r="B4" s="7" t="n"/>
       <c r="C4" s="7" t="n"/>
       <c r="D4" s="7" t="n"/>
@@ -6527,17 +6518,17 @@
       <c r="I4" s="7" t="n"/>
       <c r="J4" s="7" t="n"/>
       <c r="K4" s="7" t="n"/>
-      <c r="L4" s="65" t="n"/>
-      <c r="M4" s="69" t="n"/>
-      <c r="N4" s="72" t="n"/>
-      <c r="O4" s="72" t="n"/>
-      <c r="P4" s="72" t="n"/>
-      <c r="Q4" s="72" t="n"/>
-      <c r="R4" s="72" t="n"/>
-      <c r="S4" s="80" t="n"/>
+      <c r="L4" s="62" t="n"/>
+      <c r="M4" s="66" t="n"/>
+      <c r="N4" s="69" t="n"/>
+      <c r="O4" s="69" t="n"/>
+      <c r="P4" s="69" t="n"/>
+      <c r="Q4" s="69" t="n"/>
+      <c r="R4" s="69" t="n"/>
+      <c r="S4" s="77" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="89" t="inlineStr">
+      <c r="A5" s="86" t="inlineStr">
         <is>
           <t xml:space="preserve">Изм.цены с </t>
         </is>
@@ -6552,17 +6543,17 @@
       <c r="I5" s="24" t="n"/>
       <c r="J5" s="24" t="n"/>
       <c r="K5" s="24" t="n"/>
-      <c r="L5" s="66" t="n"/>
-      <c r="M5" s="70" t="n"/>
-      <c r="N5" s="72" t="n"/>
-      <c r="O5" s="72" t="n"/>
-      <c r="P5" s="72" t="n"/>
-      <c r="Q5" s="72" t="n"/>
-      <c r="R5" s="72" t="n"/>
-      <c r="S5" s="80" t="n"/>
+      <c r="L5" s="63" t="n"/>
+      <c r="M5" s="67" t="n"/>
+      <c r="N5" s="69" t="n"/>
+      <c r="O5" s="69" t="n"/>
+      <c r="P5" s="69" t="n"/>
+      <c r="Q5" s="69" t="n"/>
+      <c r="R5" s="69" t="n"/>
+      <c r="S5" s="77" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="90" t="inlineStr">
+      <c r="A6" s="87" t="inlineStr">
         <is>
           <t>прошлой даты</t>
         </is>
@@ -6580,17 +6571,17 @@
       <c r="I6" s="7" t="n"/>
       <c r="J6" s="7" t="n"/>
       <c r="K6" s="7" t="n"/>
-      <c r="L6" s="65" t="n"/>
-      <c r="M6" s="70" t="n"/>
-      <c r="N6" s="72" t="n"/>
-      <c r="O6" s="72" t="n"/>
-      <c r="P6" s="72" t="n"/>
-      <c r="Q6" s="72" t="n"/>
-      <c r="R6" s="72" t="n"/>
-      <c r="S6" s="80" t="n"/>
+      <c r="L6" s="62" t="n"/>
+      <c r="M6" s="67" t="n"/>
+      <c r="N6" s="69" t="n"/>
+      <c r="O6" s="69" t="n"/>
+      <c r="P6" s="69" t="n"/>
+      <c r="Q6" s="69" t="n"/>
+      <c r="R6" s="69" t="n"/>
+      <c r="S6" s="77" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="90" t="n"/>
+      <c r="A7" s="87" t="n"/>
       <c r="B7" s="7" t="n"/>
       <c r="C7" s="7" t="n"/>
       <c r="D7" s="7" t="n"/>
@@ -6601,17 +6592,17 @@
       <c r="I7" s="7" t="n"/>
       <c r="J7" s="7" t="n"/>
       <c r="K7" s="7" t="n"/>
-      <c r="L7" s="65" t="n"/>
-      <c r="M7" s="70" t="n"/>
-      <c r="N7" s="72" t="n"/>
-      <c r="O7" s="72" t="n"/>
-      <c r="P7" s="72" t="n"/>
-      <c r="Q7" s="72" t="n"/>
-      <c r="R7" s="72" t="n"/>
-      <c r="S7" s="80" t="n"/>
+      <c r="L7" s="62" t="n"/>
+      <c r="M7" s="67" t="n"/>
+      <c r="N7" s="69" t="n"/>
+      <c r="O7" s="69" t="n"/>
+      <c r="P7" s="69" t="n"/>
+      <c r="Q7" s="69" t="n"/>
+      <c r="R7" s="69" t="n"/>
+      <c r="S7" s="77" t="n"/>
     </row>
     <row r="8" ht="16" customHeight="1" thickBot="1">
-      <c r="A8" s="91" t="inlineStr">
+      <c r="A8" s="88" t="inlineStr">
         <is>
           <t>Тара</t>
         </is>
@@ -6620,67 +6611,67 @@
         <f>MIN(D8:S8)</f>
         <v/>
       </c>
-      <c r="C8" s="92" t="n"/>
-      <c r="D8" s="92" t="inlineStr">
+      <c r="C8" s="89" t="n"/>
+      <c r="D8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E8" s="92" t="inlineStr">
+      <c r="E8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F8" s="92" t="inlineStr">
+      <c r="F8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G8" s="92" t="inlineStr">
+      <c r="G8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H8" s="92" t="inlineStr">
+      <c r="H8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I8" s="92" t="n">
+      <c r="I8" s="89" t="n">
         <v>420</v>
       </c>
-      <c r="J8" s="92" t="n">
+      <c r="J8" s="89" t="n">
         <v>400</v>
       </c>
-      <c r="K8" s="92" t="inlineStr">
+      <c r="K8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L8" s="93" t="n">
+      <c r="L8" s="90" t="n">
         <v>250</v>
       </c>
-      <c r="M8" s="81" t="n">
+      <c r="M8" s="78" t="n">
         <v>290</v>
       </c>
-      <c r="N8" s="96" t="n">
+      <c r="N8" s="79" t="n">
         <v>290</v>
       </c>
-      <c r="O8" s="96" t="n">
+      <c r="O8" s="79" t="n">
         <v>500</v>
       </c>
-      <c r="P8" s="96" t="n">
+      <c r="P8" s="79" t="n">
         <v>500</v>
       </c>
-      <c r="Q8" s="96" t="n">
+      <c r="Q8" s="79" t="n">
         <v>500</v>
       </c>
-      <c r="R8" s="83" t="inlineStr">
+      <c r="R8" s="80" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S8" s="84" t="n">
+      <c r="S8" s="81" t="n">
         <v>350</v>
       </c>
     </row>
@@ -6728,17 +6719,17 @@
           <t>Аквамобил Архыз</t>
         </is>
       </c>
-      <c r="F1" s="67" t="inlineStr">
+      <c r="F1" s="64" t="inlineStr">
         <is>
           <t>Аквамобил Артенза</t>
         </is>
       </c>
-      <c r="G1" s="67" t="inlineStr">
+      <c r="G1" s="64" t="inlineStr">
         <is>
           <t>Аквамобил Кукузар</t>
         </is>
       </c>
-      <c r="H1" s="67" t="inlineStr">
+      <c r="H1" s="64" t="inlineStr">
         <is>
           <t>Аквамобил сосновская</t>
         </is>
@@ -6763,44 +6754,44 @@
           <t>Любимая+</t>
         </is>
       </c>
-      <c r="M1" s="68" t="inlineStr">
+      <c r="M1" s="65" t="inlineStr">
         <is>
           <t>Люкс вода</t>
         </is>
       </c>
-      <c r="N1" s="73" t="inlineStr">
+      <c r="N1" s="70" t="inlineStr">
         <is>
           <t>Люкс вода Люксик</t>
         </is>
       </c>
-      <c r="O1" s="74" t="inlineStr">
+      <c r="O1" s="71" t="inlineStr">
         <is>
           <t>Ниагара</t>
         </is>
       </c>
-      <c r="P1" s="74" t="inlineStr">
+      <c r="P1" s="71" t="inlineStr">
         <is>
           <t>Ниагара Премиум</t>
         </is>
       </c>
-      <c r="Q1" s="74" t="inlineStr">
+      <c r="Q1" s="71" t="inlineStr">
         <is>
           <t>Ниагара Премиум Кавказ</t>
         </is>
       </c>
-      <c r="R1" s="74" t="inlineStr">
+      <c r="R1" s="71" t="inlineStr">
         <is>
           <t>Власов ключ</t>
         </is>
       </c>
-      <c r="S1" s="75" t="inlineStr">
+      <c r="S1" s="72" t="inlineStr">
         <is>
           <t>Живая капля</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="85" t="inlineStr">
+      <c r="A2" s="82" t="inlineStr">
         <is>
           <t>19л 1шт</t>
         </is>
@@ -6809,62 +6800,62 @@
         <f>MIN(D2:S2)</f>
         <v/>
       </c>
-      <c r="C2" s="86" t="n"/>
-      <c r="D2" s="86" t="n">
+      <c r="C2" s="83" t="n"/>
+      <c r="D2" s="83" t="n">
         <v>300</v>
       </c>
-      <c r="E2" s="86" t="n">
+      <c r="E2" s="83" t="n">
         <v>550</v>
       </c>
-      <c r="F2" s="86" t="n">
+      <c r="F2" s="83" t="n">
         <v>250</v>
       </c>
-      <c r="G2" s="86" t="n">
+      <c r="G2" s="83" t="n">
         <v>250</v>
       </c>
-      <c r="H2" s="86" t="n">
+      <c r="H2" s="83" t="n">
         <v>250</v>
       </c>
-      <c r="I2" s="86" t="n">
+      <c r="I2" s="83" t="n">
         <v>220</v>
       </c>
-      <c r="J2" s="86" t="inlineStr">
+      <c r="J2" s="83" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K2" s="86" t="inlineStr">
+      <c r="K2" s="83" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L2" s="87" t="n">
-        <v>200</v>
-      </c>
-      <c r="M2" s="76" t="n">
+      <c r="L2" s="84" t="n">
+        <v>200</v>
+      </c>
+      <c r="M2" s="73" t="n">
         <v>285</v>
       </c>
-      <c r="N2" s="94" t="n">
+      <c r="N2" s="74" t="n">
         <v>323</v>
       </c>
-      <c r="O2" s="94" t="n">
+      <c r="O2" s="74" t="n">
         <v>249</v>
       </c>
-      <c r="P2" s="94" t="n">
+      <c r="P2" s="74" t="n">
         <v>265</v>
       </c>
-      <c r="Q2" s="94" t="n">
+      <c r="Q2" s="74" t="n">
         <v>449</v>
       </c>
-      <c r="R2" s="94" t="n">
+      <c r="R2" s="74" t="n">
         <v>255</v>
       </c>
-      <c r="S2" s="78" t="n">
+      <c r="S2" s="75" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="88" t="inlineStr">
+      <c r="A3" s="85" t="inlineStr">
         <is>
           <t>19л от 2х</t>
         </is>
@@ -6898,33 +6889,33 @@
       <c r="K3" s="7" t="n">
         <v>170</v>
       </c>
-      <c r="L3" s="65" t="n">
+      <c r="L3" s="62" t="n">
         <v>140</v>
       </c>
-      <c r="M3" s="69" t="n">
+      <c r="M3" s="66" t="n">
         <v>228</v>
       </c>
-      <c r="N3" s="95" t="n">
+      <c r="N3" s="68" t="n">
         <v>285</v>
       </c>
-      <c r="O3" s="95" t="n">
+      <c r="O3" s="68" t="n">
         <v>209</v>
       </c>
-      <c r="P3" s="95" t="n">
+      <c r="P3" s="68" t="n">
         <v>245</v>
       </c>
-      <c r="Q3" s="95" t="n">
+      <c r="Q3" s="68" t="n">
         <v>430</v>
       </c>
-      <c r="R3" s="95" t="n">
+      <c r="R3" s="68" t="n">
         <v>255</v>
       </c>
-      <c r="S3" s="79" t="n">
+      <c r="S3" s="76" t="n">
         <v>170</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="88" t="n"/>
+      <c r="A4" s="85" t="n"/>
       <c r="B4" s="7" t="n"/>
       <c r="C4" s="7" t="n"/>
       <c r="D4" s="7" t="n"/>
@@ -6935,17 +6926,17 @@
       <c r="I4" s="7" t="n"/>
       <c r="J4" s="7" t="n"/>
       <c r="K4" s="7" t="n"/>
-      <c r="L4" s="65" t="n"/>
-      <c r="M4" s="69" t="n"/>
-      <c r="N4" s="72" t="n"/>
-      <c r="O4" s="72" t="n"/>
-      <c r="P4" s="72" t="n"/>
-      <c r="Q4" s="72" t="n"/>
-      <c r="R4" s="72" t="n"/>
-      <c r="S4" s="80" t="n"/>
+      <c r="L4" s="62" t="n"/>
+      <c r="M4" s="66" t="n"/>
+      <c r="N4" s="69" t="n"/>
+      <c r="O4" s="69" t="n"/>
+      <c r="P4" s="69" t="n"/>
+      <c r="Q4" s="69" t="n"/>
+      <c r="R4" s="69" t="n"/>
+      <c r="S4" s="77" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="89" t="inlineStr">
+      <c r="A5" s="86" t="inlineStr">
         <is>
           <t xml:space="preserve">Изм.цены с </t>
         </is>
@@ -6960,17 +6951,17 @@
       <c r="I5" s="24" t="n"/>
       <c r="J5" s="24" t="n"/>
       <c r="K5" s="24" t="n"/>
-      <c r="L5" s="66" t="n"/>
-      <c r="M5" s="70" t="n"/>
-      <c r="N5" s="72" t="n"/>
-      <c r="O5" s="72" t="n"/>
-      <c r="P5" s="72" t="n"/>
-      <c r="Q5" s="72" t="n"/>
-      <c r="R5" s="72" t="n"/>
-      <c r="S5" s="80" t="n"/>
+      <c r="L5" s="63" t="n"/>
+      <c r="M5" s="67" t="n"/>
+      <c r="N5" s="69" t="n"/>
+      <c r="O5" s="69" t="n"/>
+      <c r="P5" s="69" t="n"/>
+      <c r="Q5" s="69" t="n"/>
+      <c r="R5" s="69" t="n"/>
+      <c r="S5" s="77" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="90" t="inlineStr">
+      <c r="A6" s="87" t="inlineStr">
         <is>
           <t>прошлой даты</t>
         </is>
@@ -7046,7 +7037,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="90" t="n"/>
+      <c r="A7" s="87" t="n"/>
       <c r="B7" s="7" t="n"/>
       <c r="C7" s="7" t="n"/>
       <c r="D7" s="7" t="n"/>
@@ -7057,17 +7048,17 @@
       <c r="I7" s="7" t="n"/>
       <c r="J7" s="7" t="n"/>
       <c r="K7" s="7" t="n"/>
-      <c r="L7" s="65" t="n"/>
-      <c r="M7" s="70" t="n"/>
-      <c r="N7" s="72" t="n"/>
-      <c r="O7" s="72" t="n"/>
-      <c r="P7" s="72" t="n"/>
-      <c r="Q7" s="72" t="n"/>
-      <c r="R7" s="72" t="n"/>
-      <c r="S7" s="80" t="n"/>
+      <c r="L7" s="62" t="n"/>
+      <c r="M7" s="67" t="n"/>
+      <c r="N7" s="69" t="n"/>
+      <c r="O7" s="69" t="n"/>
+      <c r="P7" s="69" t="n"/>
+      <c r="Q7" s="69" t="n"/>
+      <c r="R7" s="69" t="n"/>
+      <c r="S7" s="77" t="n"/>
     </row>
     <row r="8" ht="16" customHeight="1" thickBot="1">
-      <c r="A8" s="91" t="inlineStr">
+      <c r="A8" s="88" t="inlineStr">
         <is>
           <t>Тара</t>
         </is>
@@ -7076,67 +7067,67 @@
         <f>MIN(D8:S8)</f>
         <v/>
       </c>
-      <c r="C8" s="92" t="n"/>
-      <c r="D8" s="92" t="inlineStr">
+      <c r="C8" s="89" t="n"/>
+      <c r="D8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E8" s="92" t="inlineStr">
+      <c r="E8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F8" s="92" t="inlineStr">
+      <c r="F8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G8" s="92" t="inlineStr">
+      <c r="G8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H8" s="92" t="inlineStr">
+      <c r="H8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I8" s="92" t="n">
+      <c r="I8" s="89" t="n">
         <v>420</v>
       </c>
-      <c r="J8" s="92" t="n">
+      <c r="J8" s="89" t="n">
         <v>400</v>
       </c>
-      <c r="K8" s="92" t="inlineStr">
+      <c r="K8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L8" s="93" t="n">
+      <c r="L8" s="90" t="n">
         <v>250</v>
       </c>
-      <c r="M8" s="81" t="n">
+      <c r="M8" s="78" t="n">
         <v>290</v>
       </c>
-      <c r="N8" s="96" t="n">
+      <c r="N8" s="79" t="n">
         <v>290</v>
       </c>
-      <c r="O8" s="96" t="n">
+      <c r="O8" s="79" t="n">
         <v>500</v>
       </c>
-      <c r="P8" s="96" t="n">
+      <c r="P8" s="79" t="n">
         <v>500</v>
       </c>
-      <c r="Q8" s="96" t="n">
+      <c r="Q8" s="79" t="n">
         <v>500</v>
       </c>
-      <c r="R8" s="96" t="inlineStr">
+      <c r="R8" s="79" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S8" s="84" t="n">
+      <c r="S8" s="81" t="n">
         <v>350</v>
       </c>
     </row>
@@ -7151,7 +7142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7184,17 +7175,17 @@
           <t>Аквамобил Архыз</t>
         </is>
       </c>
-      <c r="F1" s="67" t="inlineStr">
+      <c r="F1" s="64" t="inlineStr">
         <is>
           <t>Аквамобил Артенза</t>
         </is>
       </c>
-      <c r="G1" s="67" t="inlineStr">
+      <c r="G1" s="64" t="inlineStr">
         <is>
           <t>Аквамобил Кукузар</t>
         </is>
       </c>
-      <c r="H1" s="67" t="inlineStr">
+      <c r="H1" s="64" t="inlineStr">
         <is>
           <t>Аквамобил сосновская</t>
         </is>
@@ -7219,44 +7210,44 @@
           <t>Любимая+</t>
         </is>
       </c>
-      <c r="M1" s="68" t="inlineStr">
+      <c r="M1" s="65" t="inlineStr">
         <is>
           <t>Люкс вода</t>
         </is>
       </c>
-      <c r="N1" s="73" t="inlineStr">
+      <c r="N1" s="70" t="inlineStr">
         <is>
           <t>Люкс вода Люксик</t>
         </is>
       </c>
-      <c r="O1" s="74" t="inlineStr">
+      <c r="O1" s="71" t="inlineStr">
         <is>
           <t>Ниагара</t>
         </is>
       </c>
-      <c r="P1" s="74" t="inlineStr">
+      <c r="P1" s="71" t="inlineStr">
         <is>
           <t>Ниагара Премиум</t>
         </is>
       </c>
-      <c r="Q1" s="74" t="inlineStr">
+      <c r="Q1" s="71" t="inlineStr">
         <is>
           <t>Ниагара Премиум Кавказ</t>
         </is>
       </c>
-      <c r="R1" s="74" t="inlineStr">
+      <c r="R1" s="71" t="inlineStr">
         <is>
           <t>Власов ключ</t>
         </is>
       </c>
-      <c r="S1" s="75" t="inlineStr">
+      <c r="S1" s="72" t="inlineStr">
         <is>
           <t>Живая капля</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="85" t="inlineStr">
+      <c r="A2" s="82" t="inlineStr">
         <is>
           <t>19л 1шт</t>
         </is>
@@ -7265,65 +7256,90 @@
         <f>MIN(D2:S2)</f>
         <v/>
       </c>
-      <c r="C2" s="86" t="n">
-        <v>300</v>
-      </c>
-      <c r="D2" s="86" t="n">
-        <v>250</v>
-      </c>
-      <c r="E2" s="86" t="n">
-        <v>220</v>
-      </c>
-      <c r="F2" s="86">
-        <f>B3-'22.01.23'!B3</f>
-        <v/>
-      </c>
-      <c r="G2" s="86" t="n">
-        <v>250</v>
-      </c>
-      <c r="H2" s="86" t="n">
-        <v>200</v>
-      </c>
-      <c r="I2" s="86" t="n">
-        <v>323</v>
-      </c>
-      <c r="J2" s="86" t="n">
-        <v>323</v>
-      </c>
-      <c r="K2" s="86" t="inlineStr">
+      <c r="C2" s="83" t="n"/>
+      <c r="D2" s="83" t="inlineStr">
         <is>
           <t>ошибка парсера</t>
         </is>
       </c>
-      <c r="L2" s="87" t="n">
-        <v>265</v>
-      </c>
-      <c r="M2" s="76" t="inlineStr">
+      <c r="E2" s="83" t="inlineStr">
         <is>
           <t>ошибка парсера</t>
         </is>
       </c>
-      <c r="N2" s="94" t="n">
-        <v>255</v>
-      </c>
-      <c r="O2" s="94" t="n">
-        <v>200</v>
-      </c>
-      <c r="P2" s="94" t="n">
-        <v>265</v>
-      </c>
-      <c r="Q2" s="94" t="n">
-        <v>449</v>
-      </c>
-      <c r="R2" s="94" t="n">
-        <v>255</v>
-      </c>
-      <c r="S2" s="78" t="n">
-        <v>200</v>
+      <c r="F2" s="83" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="G2" s="83" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="H2" s="83" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="I2" s="83" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="J2" s="83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" s="83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" s="84" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="M2" s="73" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="N2" s="74" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="O2" s="74" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="P2" s="74" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="Q2" s="74" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="R2" s="74" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="S2" s="75" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="88" t="inlineStr">
+      <c r="A3" s="85" t="inlineStr">
         <is>
           <t>19л от 2х</t>
         </is>
@@ -7332,88 +7348,111 @@
         <f>MIN(D3:S3)</f>
         <v/>
       </c>
-      <c r="C3" s="7" t="n">
-        <v>275</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>200</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>175</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <v>180</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>170</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>140</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>285</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>285</v>
+      <c r="C3" s="7" t="n"/>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="I3" s="7" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="J3" s="7" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
       </c>
       <c r="K3" s="7" t="inlineStr">
         <is>
           <t>ошибка парсера</t>
         </is>
       </c>
-      <c r="L3" s="65" t="n">
-        <v>245</v>
-      </c>
-      <c r="M3" s="69" t="inlineStr">
+      <c r="L3" s="62" t="inlineStr">
         <is>
           <t>ошибка парсера</t>
         </is>
       </c>
-      <c r="N3" s="95" t="n">
-        <v>255</v>
-      </c>
-      <c r="O3" s="95" t="n">
-        <v>340</v>
-      </c>
-      <c r="P3" s="95" t="n">
-        <v>245</v>
-      </c>
-      <c r="Q3" s="95" t="n">
-        <v>430</v>
-      </c>
-      <c r="R3" s="95" t="n">
-        <v>255</v>
-      </c>
-      <c r="S3" s="79" t="n">
-        <v>170</v>
+      <c r="M3" s="66" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="N3" s="68" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="O3" s="68" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="P3" s="68" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="Q3" s="68" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="R3" s="68" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="S3" s="76" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="88" t="n"/>
+      <c r="A4" s="85" t="n"/>
       <c r="B4" s="7" t="n"/>
       <c r="C4" s="7" t="n"/>
       <c r="D4" s="7" t="n"/>
       <c r="E4" s="7" t="n"/>
-      <c r="F4" s="7">
-        <f>D3-'22.01.23'!D3</f>
-        <v/>
-      </c>
+      <c r="F4" s="7" t="n"/>
       <c r="G4" s="7" t="n"/>
       <c r="H4" s="7" t="n"/>
       <c r="I4" s="7" t="n"/>
       <c r="J4" s="7" t="n"/>
       <c r="K4" s="7" t="n"/>
-      <c r="L4" s="65" t="n"/>
-      <c r="M4" s="69" t="n"/>
-      <c r="N4" s="72" t="n"/>
-      <c r="O4" s="72" t="n"/>
-      <c r="P4" s="72" t="n"/>
-      <c r="Q4" s="72" t="n"/>
-      <c r="R4" s="72" t="n"/>
-      <c r="S4" s="80" t="n"/>
+      <c r="L4" s="62" t="n"/>
+      <c r="M4" s="66" t="n"/>
+      <c r="N4" s="69" t="n"/>
+      <c r="O4" s="69" t="n"/>
+      <c r="P4" s="69" t="n"/>
+      <c r="Q4" s="69" t="n"/>
+      <c r="R4" s="69" t="n"/>
+      <c r="S4" s="77" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="89" t="inlineStr">
+      <c r="A5" s="86" t="inlineStr">
         <is>
           <t xml:space="preserve">Изм.цены с </t>
         </is>
@@ -7422,41 +7461,38 @@
       <c r="C5" s="24" t="n"/>
       <c r="D5" s="24" t="n"/>
       <c r="E5" s="24" t="n"/>
-      <c r="F5" s="24">
-        <f>E3-'22.01.23'!E3</f>
-        <v/>
-      </c>
+      <c r="F5" s="24" t="n"/>
       <c r="G5" s="24" t="n"/>
       <c r="H5" s="24" t="n"/>
       <c r="I5" s="24" t="n"/>
       <c r="J5" s="24" t="n"/>
       <c r="K5" s="24" t="n"/>
-      <c r="L5" s="66" t="n"/>
-      <c r="M5" s="70" t="n"/>
-      <c r="N5" s="72" t="n"/>
-      <c r="O5" s="72" t="n"/>
-      <c r="P5" s="72" t="n"/>
-      <c r="Q5" s="72" t="n"/>
-      <c r="R5" s="72" t="n"/>
-      <c r="S5" s="80" t="n"/>
+      <c r="L5" s="63" t="n"/>
+      <c r="M5" s="67" t="n"/>
+      <c r="N5" s="69" t="n"/>
+      <c r="O5" s="69" t="n"/>
+      <c r="P5" s="69" t="n"/>
+      <c r="Q5" s="69" t="n"/>
+      <c r="R5" s="69" t="n"/>
+      <c r="S5" s="77" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="90" t="inlineStr">
+      <c r="A6" s="87" t="inlineStr">
         <is>
           <t>прошлой даты</t>
         </is>
       </c>
       <c r="B6" s="7">
-        <f>B3- '22.01.23'!B3</f>
+        <f>B3-'22.01.23'!B3</f>
         <v/>
       </c>
       <c r="C6" s="7" t="n"/>
       <c r="D6" s="7">
-        <f>D3- '22.01.23'!D3</f>
+        <f>D3-'22.01.23'!D3</f>
         <v/>
       </c>
       <c r="E6" s="7">
-        <f>E3- '22.01.23'!E3</f>
+        <f>E3-'22.01.23'!E3</f>
         <v/>
       </c>
       <c r="F6" s="7">
@@ -7464,84 +7500,81 @@
         <v/>
       </c>
       <c r="G6" s="7">
-        <f>G3- '22.01.23'!G3</f>
+        <f>G3-'22.01.23'!G3</f>
         <v/>
       </c>
       <c r="H6" s="7">
-        <f>H3- '22.01.23'!H3</f>
+        <f>H3-'22.01.23'!H3</f>
         <v/>
       </c>
       <c r="I6" s="7">
-        <f>I3- '22.01.23'!I3</f>
+        <f>I3-'22.01.23'!I3</f>
         <v/>
       </c>
       <c r="J6" s="7">
-        <f>J3- '22.01.23'!J3</f>
+        <f>J3-'22.01.23'!J3</f>
         <v/>
       </c>
       <c r="K6" s="7">
-        <f>K3- '22.01.23'!K3</f>
+        <f>K3-'22.01.23'!K3</f>
         <v/>
       </c>
       <c r="L6" s="7">
-        <f>L3- '22.01.23'!L3</f>
+        <f>L3-'22.01.23'!L3</f>
         <v/>
       </c>
       <c r="M6" s="7">
-        <f>M3- '22.01.23'!M3</f>
+        <f>M3-'22.01.23'!M3</f>
         <v/>
       </c>
       <c r="N6" s="7">
-        <f>N3- '22.01.23'!N3</f>
+        <f>N3-'22.01.23'!N3</f>
         <v/>
       </c>
       <c r="O6" s="7">
-        <f>O3- '22.01.23'!O3</f>
+        <f>O3-'22.01.23'!O3</f>
         <v/>
       </c>
       <c r="P6" s="7">
-        <f>P3- '22.01.23'!P3</f>
+        <f>P3-'22.01.23'!P3</f>
         <v/>
       </c>
       <c r="Q6" s="7">
-        <f>Q3- '22.01.23'!Q3</f>
+        <f>Q3-'22.01.23'!Q3</f>
         <v/>
       </c>
       <c r="R6" s="7">
-        <f>R3- '22.01.23'!R3</f>
+        <f>R3-'22.01.23'!R3</f>
         <v/>
       </c>
       <c r="S6" s="7">
-        <f>S3- '22.01.23'!S3</f>
+        <f>S3-'22.01.23'!S3</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="90" t="n"/>
+      <c r="A7" s="87" t="n"/>
       <c r="B7" s="7" t="n"/>
       <c r="C7" s="7" t="n"/>
       <c r="D7" s="7" t="n"/>
       <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7">
-        <f>G3-'22.01.23'!G3</f>
-        <v/>
-      </c>
+      <c r="F7" s="7" t="n"/>
       <c r="G7" s="7" t="n"/>
       <c r="H7" s="7" t="n"/>
       <c r="I7" s="7" t="n"/>
       <c r="J7" s="7" t="n"/>
       <c r="K7" s="7" t="n"/>
-      <c r="L7" s="65" t="n"/>
-      <c r="M7" s="70" t="n"/>
-      <c r="N7" s="72" t="n"/>
-      <c r="O7" s="72" t="n"/>
-      <c r="P7" s="72" t="n"/>
-      <c r="Q7" s="72" t="n"/>
-      <c r="R7" s="72" t="n"/>
-      <c r="S7" s="80" t="n"/>
+      <c r="L7" s="62" t="n"/>
+      <c r="M7" s="67" t="n"/>
+      <c r="N7" s="69" t="n"/>
+      <c r="O7" s="69" t="n"/>
+      <c r="P7" s="69" t="n"/>
+      <c r="Q7" s="69" t="n"/>
+      <c r="R7" s="69" t="n"/>
+      <c r="S7" s="77" t="n"/>
     </row>
     <row r="8" ht="16" customHeight="1" thickBot="1">
-      <c r="A8" s="91" t="inlineStr">
+      <c r="A8" s="88" t="inlineStr">
         <is>
           <t>Тара</t>
         </is>
@@ -7550,131 +7583,86 @@
         <f>MIN(D8:S8)</f>
         <v/>
       </c>
-      <c r="C8" s="92" t="n"/>
-      <c r="D8" s="92" t="inlineStr">
+      <c r="C8" s="89" t="n"/>
+      <c r="D8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E8" s="92" t="n">
-        <v>420</v>
-      </c>
-      <c r="F8" s="92">
-        <f>H3-'22.01.23'!H3</f>
-        <v/>
-      </c>
-      <c r="G8" s="92" t="inlineStr">
+      <c r="E8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H8" s="92" t="n">
-        <v>250</v>
-      </c>
-      <c r="I8" s="92" t="n">
-        <v>290</v>
-      </c>
-      <c r="J8" s="92" t="n">
-        <v>290</v>
-      </c>
-      <c r="K8" s="92" t="inlineStr">
+      <c r="F8" s="89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" s="89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" s="89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" s="89" t="inlineStr">
         <is>
           <t>ошибка парсера</t>
         </is>
       </c>
-      <c r="L8" s="93" t="n">
-        <v>500</v>
-      </c>
-      <c r="M8" s="81" t="inlineStr">
+      <c r="J8" s="89" t="inlineStr">
         <is>
           <t>ошибка парсера</t>
         </is>
       </c>
-      <c r="N8" s="96" t="n">
-        <v>290</v>
-      </c>
-      <c r="O8" s="96" t="n">
-        <v>350</v>
-      </c>
-      <c r="P8" s="96" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q8" s="96" t="n">
-        <v>500</v>
-      </c>
-      <c r="R8" s="96" t="inlineStr">
+      <c r="K8" s="89" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S8" s="84" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="F9">
-        <f>I3-'22.01.23'!I3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10">
-        <f>J3-'22.01.23'!J3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="F11">
-        <f>K3-'22.01.23'!K3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12">
-        <f>L3-'22.01.23'!L3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13">
-        <f>M3-'22.01.23'!M3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14">
-        <f>N3-'22.01.23'!N3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15">
-        <f>O3-'22.01.23'!O3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16">
-        <f>P3-'22.01.23'!P3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17">
-        <f>Q3-'22.01.23'!Q3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18">
-        <f>R3-'22.01.23'!R3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="F19">
-        <f>S3-'22.01.23'!S3</f>
-        <v/>
+      <c r="L8" s="90" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="M8" s="78" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="N8" s="79" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="O8" s="79" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="P8" s="79" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="Q8" s="79" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
+      </c>
+      <c r="R8" s="79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S8" s="81" t="inlineStr">
+        <is>
+          <t>ошибка парсера</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -7901,7 +7889,7 @@
       <c r="N8" s="15" t="n"/>
     </row>
     <row r="9" ht="145.5" customHeight="1" thickBot="1">
-      <c r="A9" s="62" t="inlineStr">
+      <c r="A9" s="91" t="inlineStr">
         <is>
           <t>Акции</t>
         </is>
@@ -7929,7 +7917,7 @@
       <c r="N9" s="16" t="n"/>
     </row>
     <row r="10" ht="145.5" customHeight="1" thickBot="1">
-      <c r="A10" s="63" t="n"/>
+      <c r="A10" s="92" t="n"/>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n"/>
       <c r="D10" s="8" t="inlineStr">
@@ -7953,7 +7941,7 @@
       <c r="N10" s="16" t="n"/>
     </row>
     <row r="11" ht="174" customHeight="1">
-      <c r="A11" s="63" t="n"/>
+      <c r="A11" s="92" t="n"/>
       <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n"/>
       <c r="D11" s="8" t="inlineStr">
@@ -7977,7 +7965,7 @@
       <c r="N11" s="8" t="n"/>
     </row>
     <row r="12" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="64" t="n"/>
+      <c r="A12" s="93" t="n"/>
       <c r="B12" s="9" t="n"/>
       <c r="C12" s="9" t="n"/>
       <c r="D12" s="9" t="n"/>
@@ -8115,11 +8103,11 @@
       <c r="A3" s="25" t="n">
         <v>44866</v>
       </c>
-      <c r="B3" s="63" t="n"/>
+      <c r="B3" s="92" t="n"/>
       <c r="C3" s="50" t="n"/>
-      <c r="D3" s="63" t="n"/>
+      <c r="D3" s="92" t="n"/>
       <c r="E3" s="50" t="n"/>
-      <c r="F3" s="63">
+      <c r="F3" s="92">
         <f>'СБОР ДАННЫХ'!F3</f>
         <v/>
       </c>
@@ -8154,7 +8142,7 @@
       <c r="C5" s="54" t="n"/>
       <c r="D5" s="53" t="n"/>
       <c r="E5" s="54" t="n"/>
-      <c r="F5" s="63" t="n">
+      <c r="F5" s="92" t="n">
         <v>190</v>
       </c>
       <c r="G5" s="60">
@@ -8201,11 +8189,11 @@
       <c r="G8" s="54" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="63" t="n"/>
+      <c r="B9" s="92" t="n"/>
       <c r="C9" s="50" t="n"/>
-      <c r="D9" s="63" t="n"/>
+      <c r="D9" s="92" t="n"/>
       <c r="E9" s="50" t="n"/>
-      <c r="F9" s="63" t="n"/>
+      <c r="F9" s="92" t="n"/>
       <c r="G9" s="50" t="n"/>
     </row>
     <row r="10" customFormat="1" s="5">
@@ -8217,27 +8205,27 @@
       <c r="G10" s="56" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="63" t="n"/>
+      <c r="B11" s="92" t="n"/>
       <c r="C11" s="50" t="n"/>
-      <c r="D11" s="63" t="n"/>
+      <c r="D11" s="92" t="n"/>
       <c r="E11" s="50" t="n"/>
-      <c r="F11" s="63" t="n"/>
+      <c r="F11" s="92" t="n"/>
       <c r="G11" s="50" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="63" t="n"/>
+      <c r="B12" s="92" t="n"/>
       <c r="C12" s="50" t="n"/>
-      <c r="D12" s="63" t="n"/>
+      <c r="D12" s="92" t="n"/>
       <c r="E12" s="50" t="n"/>
-      <c r="F12" s="63" t="n"/>
+      <c r="F12" s="92" t="n"/>
       <c r="G12" s="50" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="63" t="n"/>
+      <c r="B13" s="92" t="n"/>
       <c r="C13" s="50" t="n"/>
-      <c r="D13" s="63" t="n"/>
+      <c r="D13" s="92" t="n"/>
       <c r="E13" s="50" t="n"/>
-      <c r="F13" s="63" t="n"/>
+      <c r="F13" s="92" t="n"/>
       <c r="G13" s="50" t="n"/>
     </row>
     <row r="14" ht="15" customHeight="1" thickBot="1">
@@ -8491,7 +8479,7 @@
       <c r="L7" s="15" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="62" t="inlineStr">
+      <c r="A8" s="91" t="inlineStr">
         <is>
           <t>Акции</t>
         </is>
@@ -8509,7 +8497,7 @@
       <c r="L8" s="16" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="63" t="n"/>
+      <c r="A9" s="92" t="n"/>
       <c r="B9" s="8" t="n"/>
       <c r="C9" s="8" t="n"/>
       <c r="D9" s="8" t="n"/>
@@ -8523,7 +8511,7 @@
       <c r="L9" s="16" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="63" t="n"/>
+      <c r="A10" s="92" t="n"/>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n"/>
       <c r="D10" s="8" t="n"/>
@@ -8537,7 +8525,7 @@
       <c r="L10" s="8" t="n"/>
     </row>
     <row r="11" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="64" t="n"/>
+      <c r="A11" s="93" t="n"/>
       <c r="B11" s="9" t="n"/>
       <c r="C11" s="9" t="n"/>
       <c r="D11" s="9" t="n"/>
@@ -8883,7 +8871,7 @@
       <c r="L8" s="15" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="62" t="inlineStr">
+      <c r="A9" s="91" t="inlineStr">
         <is>
           <t>Акции</t>
         </is>
@@ -8901,7 +8889,7 @@
       <c r="L9" s="16" t="n"/>
     </row>
     <row r="10" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="63" t="n"/>
+      <c r="A10" s="92" t="n"/>
       <c r="B10" s="8" t="n"/>
       <c r="C10" s="8" t="n"/>
       <c r="D10" s="8" t="n"/>
@@ -8915,7 +8903,7 @@
       <c r="L10" s="16" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="63" t="n"/>
+      <c r="A11" s="92" t="n"/>
       <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n"/>
       <c r="D11" s="8" t="n"/>
@@ -8929,7 +8917,7 @@
       <c r="L11" s="8" t="n"/>
     </row>
     <row r="12" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="64" t="n"/>
+      <c r="A12" s="93" t="n"/>
       <c r="B12" s="9" t="n"/>
       <c r="C12" s="9" t="n"/>
       <c r="D12" s="9" t="n"/>
@@ -9621,7 +9609,7 @@
       </c>
     </row>
     <row r="9" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A9" s="62" t="inlineStr">
+      <c r="A9" s="91" t="inlineStr">
         <is>
           <t>Акции</t>
         </is>
@@ -9687,7 +9675,7 @@
       <c r="L9" s="16" t="n"/>
     </row>
     <row r="10" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A10" s="63" t="n"/>
+      <c r="A10" s="92" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Кулер напольный с НАГРЕВОМ
@@ -9749,7 +9737,7 @@
       <c r="L10" s="16" t="n"/>
     </row>
     <row r="11" ht="43.5" customHeight="1">
-      <c r="A11" s="63" t="n"/>
+      <c r="A11" s="92" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Помпа мини + 2 по 19+2 тары 1000₽</t>
@@ -9805,7 +9793,7 @@
       </c>
     </row>
     <row r="12" ht="29.5" customHeight="1" thickBot="1">
-      <c r="A12" s="64" t="n"/>
+      <c r="A12" s="93" t="n"/>
       <c r="B12" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">2% бонусами </t>
@@ -10241,7 +10229,7 @@
       </c>
     </row>
     <row r="9" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A9" s="62" t="inlineStr">
+      <c r="A9" s="91" t="inlineStr">
         <is>
           <t>Акции</t>
         </is>
@@ -10307,7 +10295,7 @@
       <c r="L9" s="19" t="n"/>
     </row>
     <row r="10" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A10" s="63" t="n"/>
+      <c r="A10" s="92" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Кулер напольный с НАГРЕВОМ
@@ -10369,7 +10357,7 @@
       <c r="L10" s="19" t="n"/>
     </row>
     <row r="11" ht="43.5" customHeight="1">
-      <c r="A11" s="63" t="n"/>
+      <c r="A11" s="92" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Помпа мини + 2 по 19+2 тары 1000₽</t>
@@ -10425,7 +10413,7 @@
       </c>
     </row>
     <row r="12" ht="29.5" customHeight="1" thickBot="1">
-      <c r="A12" s="64" t="n"/>
+      <c r="A12" s="93" t="n"/>
       <c r="B12" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">2% бонусами </t>
@@ -10862,7 +10850,7 @@
       </c>
     </row>
     <row r="10" hidden="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A10" s="62" t="inlineStr">
+      <c r="A10" s="91" t="inlineStr">
         <is>
           <t>Акции</t>
         </is>
@@ -10928,7 +10916,7 @@
       <c r="L10" s="19" t="n"/>
     </row>
     <row r="11" hidden="1" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A11" s="63" t="n"/>
+      <c r="A11" s="92" t="n"/>
       <c r="B11" s="20" t="inlineStr">
         <is>
           <t>Кулер напольный с НАГРЕВОМ
@@ -10990,7 +10978,7 @@
       <c r="L11" s="19" t="n"/>
     </row>
     <row r="12" hidden="1" ht="43.5" customHeight="1">
-      <c r="A12" s="63" t="n"/>
+      <c r="A12" s="92" t="n"/>
       <c r="B12" s="20" t="inlineStr">
         <is>
           <t>Помпа мини + 2 по 19+2 тары 1000₽</t>
@@ -11046,7 +11034,7 @@
       </c>
     </row>
     <row r="13" hidden="1" ht="29.5" customHeight="1" thickBot="1">
-      <c r="A13" s="64" t="n"/>
+      <c r="A13" s="93" t="n"/>
       <c r="B13" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">2% бонусами </t>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislav/Documents/GitHub/water/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A1C550-C217-D543-916E-20FFD2F2852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6640A9-9D3D-7043-9E99-3159E1E6162E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СБОР ДАННЫХ" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="21.01.23" sheetId="16" r:id="rId16"/>
     <sheet name="22.01.23" sheetId="17" r:id="rId17"/>
     <sheet name="25.01.23" sheetId="18" r:id="rId18"/>
+    <sheet name="26.01.23" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -292,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="95">
   <si>
     <t>дата</t>
   </si>
@@ -6537,8 +6538,402 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7">
+        <f>MIN(D2:S2)</f>
+        <v>200</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83">
+        <v>300</v>
+      </c>
+      <c r="E2" s="83">
+        <v>550</v>
+      </c>
+      <c r="F2" s="83">
+        <v>250</v>
+      </c>
+      <c r="G2" s="83">
+        <v>250</v>
+      </c>
+      <c r="H2" s="83">
+        <v>250</v>
+      </c>
+      <c r="I2" s="83">
+        <v>220</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="84">
+        <v>200</v>
+      </c>
+      <c r="M2" s="73">
+        <v>323</v>
+      </c>
+      <c r="N2" s="74">
+        <v>323</v>
+      </c>
+      <c r="O2" s="74">
+        <f>'22.01.23'!O2</f>
+        <v>249</v>
+      </c>
+      <c r="P2" s="74">
+        <v>265</v>
+      </c>
+      <c r="Q2" s="74">
+        <f>'22.01.23'!Q2</f>
+        <v>449</v>
+      </c>
+      <c r="R2" s="74">
+        <v>255</v>
+      </c>
+      <c r="S2" s="75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7">
+        <f>MIN(D3:S3)</f>
+        <v>140</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
+        <v>275</v>
+      </c>
+      <c r="E3" s="7">
+        <v>525</v>
+      </c>
+      <c r="F3" s="7">
+        <v>175</v>
+      </c>
+      <c r="G3" s="7">
+        <v>225</v>
+      </c>
+      <c r="H3" s="7">
+        <v>200</v>
+      </c>
+      <c r="I3" s="7">
+        <v>175</v>
+      </c>
+      <c r="J3" s="7">
+        <v>180</v>
+      </c>
+      <c r="K3" s="7">
+        <v>170</v>
+      </c>
+      <c r="L3" s="62">
+        <v>140</v>
+      </c>
+      <c r="M3" s="66">
+        <v>285</v>
+      </c>
+      <c r="N3" s="68">
+        <v>285</v>
+      </c>
+      <c r="O3" s="68">
+        <f>'22.01.23'!O3</f>
+        <v>209</v>
+      </c>
+      <c r="P3" s="68">
+        <v>245</v>
+      </c>
+      <c r="Q3" s="68">
+        <f>'22.01.23'!Q3</f>
+        <v>430</v>
+      </c>
+      <c r="R3" s="68">
+        <v>255</v>
+      </c>
+      <c r="S3" s="76">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="85"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="77"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="77"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="7">
+        <f>B3-'22.01.23'!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <f>D3-'22.01.23'!D3</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f>E3-'22.01.23'!E3</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f>F3-'22.01.23'!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <f>G3-'22.01.23'!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <f>H3-'22.01.23'!H3</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f>I3-'22.01.23'!I3</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f>J3-'22.01.23'!J3</f>
+        <v>5</v>
+      </c>
+      <c r="K6" s="7">
+        <f>K3-'22.01.23'!K3</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f>L3-'22.01.23'!L3</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f>M3-'22.01.23'!M3</f>
+        <v>57</v>
+      </c>
+      <c r="N6" s="7">
+        <f>N3-'22.01.23'!N3</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <f>O3-'22.01.23'!O3</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <f>P3-'22.01.23'!P3</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>Q3-'22.01.23'!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <f>R3-'22.01.23'!R3</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f>S3-'22.01.23'!S3</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="87"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="77"/>
+    </row>
+    <row r="8" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7">
+        <f>MIN(D8:S8)</f>
+        <v>250</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="89">
+        <v>420</v>
+      </c>
+      <c r="J8" s="89">
+        <v>350</v>
+      </c>
+      <c r="K8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="90">
+        <v>250</v>
+      </c>
+      <c r="M8" s="78">
+        <v>290</v>
+      </c>
+      <c r="N8" s="79">
+        <v>290</v>
+      </c>
+      <c r="O8" s="79">
+        <f>'22.01.23'!O8</f>
+        <v>500</v>
+      </c>
+      <c r="P8" s="79">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="79">
+        <f>'22.01.23'!Q8</f>
+        <v>500</v>
+      </c>
+      <c r="R8" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="81">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B78CC2-06DA-684B-B923-EAF14D7B6302}">
+  <dimension ref="A1:S8"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,30 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislav/Documents/GitHub/water/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6640A9-9D3D-7043-9E99-3159E1E6162E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA77EBF-FD31-624C-AA79-A5A2F3BEB5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="СБОР ДАННЫХ" sheetId="1" r:id="rId1"/>
-    <sheet name="Выод данных" sheetId="2" r:id="rId2"/>
-    <sheet name="Сводная" sheetId="3" r:id="rId3"/>
-    <sheet name="02.18" sheetId="4" r:id="rId4"/>
-    <sheet name="27.04.21" sheetId="5" r:id="rId5"/>
-    <sheet name="План на цены 2022" sheetId="6" r:id="rId6"/>
-    <sheet name="27.01.22" sheetId="7" r:id="rId7"/>
-    <sheet name="15.03.22" sheetId="8" r:id="rId8"/>
-    <sheet name="22.03.22" sheetId="9" r:id="rId9"/>
-    <sheet name="9.04.22" sheetId="10" r:id="rId10"/>
-    <sheet name="10.05.22" sheetId="11" r:id="rId11"/>
-    <sheet name="23.05.22 " sheetId="12" r:id="rId12"/>
-    <sheet name="15.06.22" sheetId="13" r:id="rId13"/>
-    <sheet name="4.07.22" sheetId="14" r:id="rId14"/>
-    <sheet name="26.10.22" sheetId="15" r:id="rId15"/>
-    <sheet name="21.01.23" sheetId="16" r:id="rId16"/>
-    <sheet name="22.01.23" sheetId="17" r:id="rId17"/>
-    <sheet name="25.01.23" sheetId="18" r:id="rId18"/>
-    <sheet name="26.01.23" sheetId="19" r:id="rId19"/>
+    <sheet name="Графики" sheetId="1" r:id="rId1"/>
+    <sheet name="СБОР ДАННЫХ" sheetId="2" r:id="rId2"/>
+    <sheet name="Выод данных" sheetId="3" r:id="rId3"/>
+    <sheet name="Сводная" sheetId="4" r:id="rId4"/>
+    <sheet name="02.18" sheetId="5" r:id="rId5"/>
+    <sheet name="27.04.21" sheetId="6" r:id="rId6"/>
+    <sheet name="План на цены 2022" sheetId="7" r:id="rId7"/>
+    <sheet name="27.01.22" sheetId="8" r:id="rId8"/>
+    <sheet name="15.03.22" sheetId="9" r:id="rId9"/>
+    <sheet name="22.03.22" sheetId="10" r:id="rId10"/>
+    <sheet name="9.04.22" sheetId="11" r:id="rId11"/>
+    <sheet name="10.05.22" sheetId="12" r:id="rId12"/>
+    <sheet name="23.05.22 " sheetId="13" r:id="rId13"/>
+    <sheet name="15.06.22" sheetId="14" r:id="rId14"/>
+    <sheet name="4.07.22" sheetId="15" r:id="rId15"/>
+    <sheet name="26.10.22" sheetId="16" r:id="rId16"/>
+    <sheet name="21.01.23" sheetId="17" r:id="rId17"/>
+    <sheet name="22.01.23" sheetId="18" r:id="rId18"/>
+    <sheet name="25.01.23" sheetId="19" r:id="rId19"/>
+    <sheet name="26.01.23" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
     <author>Админ</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -93,46 +94,6 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Админ</author>
-  </authors>
-  <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>цена по акции. Факт 300р</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>цена по акции. Факт 240р</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Админ</author>
@@ -172,7 +133,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Админ</author>
@@ -212,7 +173,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Админ</author>
@@ -252,7 +213,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Админ</author>
@@ -292,8 +253,54 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Админ</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>цена по акции. Факт 300р</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>цена по акции. Факт 240р</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="110">
+  <si>
+    <t>Кристальная</t>
+  </si>
+  <si>
+    <t>Ниагара</t>
+  </si>
   <si>
     <t>дата</t>
   </si>
@@ -341,9 +348,6 @@
   </si>
   <si>
     <t>Ниагара Премиум</t>
-  </si>
-  <si>
-    <t>Кристальная</t>
   </si>
   <si>
     <t>Живая капля</t>
@@ -604,9 +608,6 @@
     <t>Люкс вода Люксик</t>
   </si>
   <si>
-    <t>Ниагара</t>
-  </si>
-  <si>
     <t>Ниагара Премиум Кавказ</t>
   </si>
   <si>
@@ -614,6 +615,51 @@
   </si>
   <si>
     <t>прошлой даты</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>01.02.2018</t>
+  </si>
+  <si>
+    <t>27.04.2021</t>
+  </si>
+  <si>
+    <t>27.01.2022</t>
+  </si>
+  <si>
+    <t>15.03.2022</t>
+  </si>
+  <si>
+    <t>22.03.2022</t>
+  </si>
+  <si>
+    <t>09.04.2022</t>
+  </si>
+  <si>
+    <t>10.05.2022</t>
+  </si>
+  <si>
+    <t>23.05.2022</t>
+  </si>
+  <si>
+    <t>15.06.2022</t>
+  </si>
+  <si>
+    <t>26.10.2022</t>
+  </si>
+  <si>
+    <t>21.01.2023</t>
+  </si>
+  <si>
+    <t>22.01.2023</t>
+  </si>
+  <si>
+    <t>25.01.2023</t>
+  </si>
+  <si>
+    <t>26.01.2023</t>
   </si>
 </sst>
 </file>
@@ -625,7 +671,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +735,37 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1103,7 +1180,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1338,13 +1415,89 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1358,6 +1511,2224 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Аквамобиль Аква Ирендык</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="10">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Аквамобил Архыз</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="10">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Аквамобил Артенза</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Аквамобил Кукузар</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Аквамобил сосновская</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Чебаркульский исток</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$G$2:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кристальная</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$H$2:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Горный ОАЗИС</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$I$2:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Любимая+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$J$2:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Люкс вода</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$K$2:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Люкс вода Люксик</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$L$2:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="10">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ниагара</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ниагара Премиум</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$N$2:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="10">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ниагара Премиум Кавказ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$O$2:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="10">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>430</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Власов ключ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$P$2:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Графики!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Живая капля</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>01.02.2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.04.2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.01.2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.03.2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>09.04.2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.05.2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.06.2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.10.2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.01.2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.01.2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$Q$2:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-3F6B-FF40-8326-7E520377A0D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1484088448"/>
+        <c:axId val="1095594160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1484088448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1095594160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1095594160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1484088448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -1461,7 +3832,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-78FF-F946-8A0F-D1A450DC8D1E}"/>
+              <c16:uniqueId val="{00000000-9243-0943-AE3C-545CA5D46FED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1596,7 +3967,604 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>611038</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>81037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>657981</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>30237</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BCE37E-8C07-9B49-66AA-A5AADF8481BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1616,7 +4584,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,6 +4603,32 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8ED5FD52-4186-8747-85C4-7AE2131A4FBA}" name="Table2" displayName="Table2" ref="A1:Q15" totalsRowShown="0">
+  <autoFilter ref="A1:Q15" xr:uid="{8ED5FD52-4186-8747-85C4-7AE2131A4FBA}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{9DB6DC96-312F-BB44-A930-CD1252B1E4F2}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{084190F3-973C-514B-8290-1F92A06981E0}" name="Аквамобиль Аква Ирендык" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{58A10194-9E32-AD45-996F-91E32E8B4638}" name="Аквамобил Архыз" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{60927FFA-ACFD-354A-909D-3AB157B3D959}" name="Аквамобил Артенза" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{3C3BE93D-3485-C447-9A8B-AFA3885366A2}" name="Аквамобил Кукузар" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{017266D5-58CB-EB41-9020-337FA85BA585}" name="Аквамобил сосновская" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{ABF6F64F-F245-DF42-B579-F71BE3F0CE15}" name="Чебаркульский исток" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{0A8DB3FC-1AC5-2A44-8E08-1C598012A111}" name="Кристальная" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{FB9EDD56-DA22-874A-A250-D73799F9C5F1}" name="Горный ОАЗИС" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{E545F258-3FDA-224B-AC46-ACA740E455B1}" name="Любимая+" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{C05361E7-CDDE-F046-AAC0-BEBDCD5333EA}" name="Люкс вода" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{2D045DC0-2780-4D4A-BECC-A92A0068F566}" name="Люкс вода Люксик" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{93609754-7FE6-C643-81DC-C64349C8B475}" name="Ниагара" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{6B5CCA2D-6855-9641-922C-74C17FF6FDF8}" name="Ниагара Премиум" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{7CCF6124-03E6-4248-9546-405FC9709865}" name="Ниагара Премиум Кавказ" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{359BE776-600E-C946-A919-73B1558B0F4D}" name="Власов ключ" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{E784DF6D-9613-4B4C-989B-46AB5CEE17A4}" name="Живая капля" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1900,177 +4894,1527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:B8"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="36">
-        <v>44894</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="46">
-        <v>200</v>
-      </c>
-      <c r="F2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="36">
-        <v>44894</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="46">
-        <v>380</v>
-      </c>
-      <c r="F3">
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102">
+        <v>100</v>
+      </c>
+      <c r="H2" s="102">
+        <v>140</v>
+      </c>
+      <c r="I2" s="102">
+        <v>110</v>
+      </c>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102">
+        <v>163</v>
+      </c>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102">
+        <v>150</v>
+      </c>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102">
+        <v>170</v>
+      </c>
+      <c r="Q2" s="102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102">
+        <v>140</v>
+      </c>
+      <c r="H3" s="102">
+        <v>150</v>
+      </c>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102">
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
-        <v>44894</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="46">
-        <v>200</v>
-      </c>
-      <c r="F4">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
-        <v>44896</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="46">
-        <v>200</v>
-      </c>
-      <c r="F5">
-        <f>E5/D5</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
-        <v>44896</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="46">
-        <v>380</v>
-      </c>
-      <c r="F6">
-        <f>E6/D6</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
-        <v>44896</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="46">
-        <v>200</v>
-      </c>
-      <c r="F7">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102">
+        <v>189</v>
+      </c>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102">
+        <v>180</v>
+      </c>
+      <c r="Q3" s="102">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102">
+        <v>175</v>
+      </c>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102">
+        <v>150</v>
+      </c>
+      <c r="H4" s="102">
+        <v>170</v>
+      </c>
+      <c r="I4" s="102">
+        <v>145</v>
+      </c>
+      <c r="J4" s="102">
+        <v>120</v>
+      </c>
+      <c r="K4" s="102">
+        <v>184</v>
+      </c>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102">
+        <v>199</v>
+      </c>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102">
+        <v>180</v>
+      </c>
+      <c r="Q4" s="102">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102">
+        <v>175</v>
+      </c>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102">
+        <v>175</v>
+      </c>
+      <c r="H5" s="102">
+        <v>170</v>
+      </c>
+      <c r="I5" s="102">
+        <v>150</v>
+      </c>
+      <c r="J5" s="102">
+        <v>120</v>
+      </c>
+      <c r="K5" s="102">
+        <v>195</v>
+      </c>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102">
+        <v>230</v>
+      </c>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="102">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102">
+        <v>175</v>
+      </c>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102">
+        <v>175</v>
+      </c>
+      <c r="H6" s="102">
+        <v>180</v>
+      </c>
+      <c r="I6" s="102">
+        <v>150</v>
+      </c>
+      <c r="J6" s="102">
+        <v>120</v>
+      </c>
+      <c r="K6" s="102">
+        <v>195</v>
+      </c>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102">
+        <v>230</v>
+      </c>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102">
+        <v>180</v>
+      </c>
+      <c r="Q6" s="102">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102">
+        <v>175</v>
+      </c>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102">
+        <v>175</v>
+      </c>
+      <c r="H7" s="102">
+        <v>180</v>
+      </c>
+      <c r="I7" s="102">
+        <v>170</v>
+      </c>
+      <c r="J7" s="102">
+        <v>120</v>
+      </c>
+      <c r="K7" s="102">
+        <v>216</v>
+      </c>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102">
+        <v>230</v>
+      </c>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102">
+        <v>195</v>
+      </c>
+      <c r="Q7" s="102">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102">
+        <v>175</v>
+      </c>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102">
+        <v>175</v>
+      </c>
+      <c r="H8" s="102">
+        <v>180</v>
+      </c>
+      <c r="I8" s="102">
+        <v>170</v>
+      </c>
+      <c r="J8" s="102">
+        <v>120</v>
+      </c>
+      <c r="K8" s="102">
+        <v>216</v>
+      </c>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102">
+        <v>230</v>
+      </c>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102">
+        <v>195</v>
+      </c>
+      <c r="Q8" s="102">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102">
+        <v>175</v>
+      </c>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102">
+        <v>175</v>
+      </c>
+      <c r="H9" s="102">
+        <v>180</v>
+      </c>
+      <c r="I9" s="102">
+        <v>170</v>
+      </c>
+      <c r="J9" s="102">
+        <v>120</v>
+      </c>
+      <c r="K9" s="102">
+        <v>216</v>
+      </c>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102">
+        <v>230</v>
+      </c>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102">
+        <v>195</v>
+      </c>
+      <c r="Q9" s="102">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102">
+        <v>175</v>
+      </c>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102">
+        <v>175</v>
+      </c>
+      <c r="H10" s="102">
+        <v>180</v>
+      </c>
+      <c r="I10" s="102">
+        <v>170</v>
+      </c>
+      <c r="J10" s="102">
+        <v>120</v>
+      </c>
+      <c r="K10" s="102">
+        <v>216</v>
+      </c>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102">
+        <v>230</v>
+      </c>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="102">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102">
+        <v>175</v>
+      </c>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="103">
+        <v>175</v>
+      </c>
+      <c r="H11" s="103">
+        <v>180</v>
+      </c>
+      <c r="I11" s="103">
+        <v>170</v>
+      </c>
+      <c r="J11" s="103">
+        <v>140</v>
+      </c>
+      <c r="K11" s="103">
+        <v>216</v>
+      </c>
+      <c r="L11" s="104"/>
+      <c r="M11" s="103">
+        <v>245</v>
+      </c>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="103">
+        <v>230</v>
+      </c>
+      <c r="Q11" s="103">
+        <v>170</v>
+      </c>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="102">
+        <f>'26.01.23'!D3</f>
+        <v>275</v>
+      </c>
+      <c r="C12" s="102">
+        <f>'26.01.23'!E3</f>
+        <v>525</v>
+      </c>
+      <c r="D12" s="102">
+        <f>'26.01.23'!F3</f>
+        <v>175</v>
+      </c>
+      <c r="E12" s="102">
+        <f>'26.01.23'!G3</f>
+        <v>225</v>
+      </c>
+      <c r="F12" s="102">
+        <f>'26.01.23'!H3</f>
+        <v>200</v>
+      </c>
+      <c r="G12" s="102">
+        <f>'26.01.23'!I3</f>
+        <v>175</v>
+      </c>
+      <c r="H12" s="102">
+        <f>'26.01.23'!J3</f>
+        <v>180</v>
+      </c>
+      <c r="I12" s="102">
+        <f>'26.01.23'!K3</f>
+        <v>170</v>
+      </c>
+      <c r="J12" s="102">
+        <f>'26.01.23'!L3</f>
+        <v>140</v>
+      </c>
+      <c r="K12" s="102">
+        <f>'26.01.23'!M3</f>
+        <v>228</v>
+      </c>
+      <c r="L12" s="102">
+        <f>'26.01.23'!N3</f>
+        <v>285</v>
+      </c>
+      <c r="M12" s="102">
+        <f>'26.01.23'!O3</f>
+        <v>209</v>
+      </c>
+      <c r="N12" s="102">
+        <f>'26.01.23'!P3</f>
+        <v>245</v>
+      </c>
+      <c r="O12" s="102">
+        <f>'26.01.23'!Q3</f>
+        <v>430</v>
+      </c>
+      <c r="P12" s="102">
+        <f>'26.01.23'!R3</f>
+        <v>255</v>
+      </c>
+      <c r="Q12" s="102">
+        <f>'26.01.23'!S3</f>
+        <v>170</v>
+      </c>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="96"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="102">
+        <f>'22.01.23'!D3</f>
+        <v>275</v>
+      </c>
+      <c r="C13" s="102">
+        <f>'22.01.23'!E3</f>
+        <v>525</v>
+      </c>
+      <c r="D13" s="102">
+        <f>'22.01.23'!F3</f>
+        <v>175</v>
+      </c>
+      <c r="E13" s="102">
+        <f>'22.01.23'!G3</f>
+        <v>225</v>
+      </c>
+      <c r="F13" s="102">
+        <f>'22.01.23'!H3</f>
+        <v>200</v>
+      </c>
+      <c r="G13" s="102">
+        <f>'22.01.23'!I3</f>
+        <v>175</v>
+      </c>
+      <c r="H13" s="102">
+        <f>'22.01.23'!J3</f>
+        <v>175</v>
+      </c>
+      <c r="I13" s="102">
+        <f>'22.01.23'!K3</f>
+        <v>170</v>
+      </c>
+      <c r="J13" s="102">
+        <f>'22.01.23'!L3</f>
+        <v>140</v>
+      </c>
+      <c r="K13" s="102">
+        <f>'22.01.23'!M3</f>
+        <v>228</v>
+      </c>
+      <c r="L13" s="102">
+        <f>'22.01.23'!N3</f>
+        <v>285</v>
+      </c>
+      <c r="M13" s="102">
+        <f>'22.01.23'!O3</f>
+        <v>209</v>
+      </c>
+      <c r="N13" s="102">
+        <f>'22.01.23'!P3</f>
+        <v>245</v>
+      </c>
+      <c r="O13" s="102">
+        <f>'22.01.23'!Q3</f>
+        <v>430</v>
+      </c>
+      <c r="P13" s="102">
+        <f>'22.01.23'!R3</f>
+        <v>255</v>
+      </c>
+      <c r="Q13" s="102">
+        <f>'25.01.23'!S3</f>
+        <v>170</v>
+      </c>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="102">
+        <f>'25.01.23'!D3</f>
+        <v>275</v>
+      </c>
+      <c r="C14" s="102">
+        <f>'25.01.23'!E3</f>
+        <v>525</v>
+      </c>
+      <c r="D14" s="102">
+        <f>'25.01.23'!F3</f>
+        <v>175</v>
+      </c>
+      <c r="E14" s="102">
+        <f>'25.01.23'!G3</f>
+        <v>225</v>
+      </c>
+      <c r="F14" s="102">
+        <f>'25.01.23'!H3</f>
+        <v>200</v>
+      </c>
+      <c r="G14" s="102">
+        <f>'25.01.23'!I3</f>
+        <v>175</v>
+      </c>
+      <c r="H14" s="102">
+        <f>'25.01.23'!J3</f>
+        <v>180</v>
+      </c>
+      <c r="I14" s="102">
+        <f>'25.01.23'!K3</f>
+        <v>170</v>
+      </c>
+      <c r="J14" s="102">
+        <f>'25.01.23'!L3</f>
+        <v>140</v>
+      </c>
+      <c r="K14" s="102">
+        <f>'25.01.23'!M3</f>
+        <v>228</v>
+      </c>
+      <c r="L14" s="102">
+        <f>'25.01.23'!N3</f>
+        <v>285</v>
+      </c>
+      <c r="M14" s="102">
+        <f>'25.01.23'!O3</f>
+        <v>209</v>
+      </c>
+      <c r="N14" s="102">
+        <f>'25.01.23'!P3</f>
+        <v>245</v>
+      </c>
+      <c r="O14" s="102">
+        <f>'25.01.23'!Q3</f>
+        <v>430</v>
+      </c>
+      <c r="P14" s="102">
+        <f>'25.01.23'!R3</f>
+        <v>255</v>
+      </c>
+      <c r="Q14" s="102">
+        <f>'25.01.23'!S3</f>
+        <v>170</v>
+      </c>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="97"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="102">
+        <f>'26.01.23'!D3</f>
+        <v>275</v>
+      </c>
+      <c r="C15" s="102">
+        <f>'26.01.23'!E3</f>
+        <v>525</v>
+      </c>
+      <c r="D15" s="102">
+        <f>'26.01.23'!F3</f>
+        <v>175</v>
+      </c>
+      <c r="E15" s="102">
+        <f>'26.01.23'!G3</f>
+        <v>225</v>
+      </c>
+      <c r="F15" s="102">
+        <f>'26.01.23'!H3</f>
+        <v>200</v>
+      </c>
+      <c r="G15" s="102">
+        <f>'26.01.23'!I3</f>
+        <v>175</v>
+      </c>
+      <c r="H15" s="102">
+        <f>'26.01.23'!J3</f>
+        <v>180</v>
+      </c>
+      <c r="I15" s="102">
+        <f>'26.01.23'!K3</f>
+        <v>170</v>
+      </c>
+      <c r="J15" s="102">
+        <f>'26.01.23'!L3</f>
+        <v>140</v>
+      </c>
+      <c r="K15" s="102">
+        <f>'26.01.23'!M3</f>
+        <v>228</v>
+      </c>
+      <c r="L15" s="102">
+        <f>'26.01.23'!N3</f>
+        <v>285</v>
+      </c>
+      <c r="M15" s="102">
+        <f>'26.01.23'!O3</f>
+        <v>209</v>
+      </c>
+      <c r="N15" s="102">
+        <f>'26.01.23'!P3</f>
+        <v>245</v>
+      </c>
+      <c r="O15" s="102">
+        <f>'26.01.23'!Q3</f>
+        <v>430</v>
+      </c>
+      <c r="P15" s="102">
+        <f>'26.01.23'!R3</f>
+        <v>255</v>
+      </c>
+      <c r="Q15" s="102">
+        <f>'26.01.23'!S3</f>
+        <v>170</v>
+      </c>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="96"/>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="97"/>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="96"/>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D21" s="96"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="94"/>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+    </row>
+    <row r="30" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+    </row>
+    <row r="31" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+    </row>
+    <row r="33" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="99"/>
+    </row>
+    <row r="34" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="100"/>
+      <c r="S34" s="100"/>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+    </row>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="100"/>
+      <c r="R36" s="100"/>
+      <c r="S36" s="100"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L4" sqref="D2:L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="2" customWidth="1"/>
+    <col min="9" max="12" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="11">
+        <v>180</v>
+      </c>
+      <c r="C3" s="11">
+        <v>200</v>
+      </c>
+      <c r="D3" s="11">
+        <v>246</v>
+      </c>
+      <c r="E3" s="11">
+        <v>255</v>
+      </c>
+      <c r="F3" s="11">
+        <v>250</v>
+      </c>
+      <c r="G3" s="11">
+        <v>200</v>
+      </c>
+      <c r="H3" s="11">
+        <v>150</v>
+      </c>
+      <c r="I3" s="11">
+        <f>180+60</f>
+        <v>240</v>
+      </c>
+      <c r="J3" s="11">
+        <v>220</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7">
+        <v>140</v>
+      </c>
+      <c r="C4" s="7">
+        <v>180</v>
+      </c>
+      <c r="D4" s="7">
+        <v>195</v>
+      </c>
+      <c r="E4" s="7">
+        <v>230</v>
+      </c>
+      <c r="F4" s="7">
+        <v>180</v>
+      </c>
+      <c r="G4" s="7">
+        <f>340/2</f>
+        <v>170</v>
+      </c>
+      <c r="H4" s="11">
+        <v>150</v>
+      </c>
+      <c r="I4" s="7">
+        <v>180</v>
+      </c>
+      <c r="J4" s="7">
+        <v>175</v>
+      </c>
+      <c r="K4" s="32">
+        <v>120</v>
+      </c>
+      <c r="L4" s="32">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="24">
+        <f>1-'15.03.22'!B3/B4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="24">
+        <f>1-'15.03.22'!C3/C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <f>1-'15.03.22'!D3/D4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <f>1-'15.03.22'!E3/E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="24">
+        <f>1-'15.03.22'!F3/F4</f>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="G5" s="24">
+        <f>1-'15.03.22'!G3/G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="24">
+        <f>1-'15.03.22'!H3/H4</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="24">
+        <f>1-'15.03.22'!I3/I4</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="24">
+        <f>1-'15.03.22'!J3/J4</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="33">
+        <f>1-'15.03.22'!K3/K4</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="33">
+        <f>1-'15.03.22'!L3/L4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7">
+        <v>110</v>
+      </c>
+      <c r="C6" s="7">
+        <v>130</v>
+      </c>
+      <c r="D6" s="7">
+        <v>195</v>
+      </c>
+      <c r="E6" s="7">
+        <v>225</v>
+      </c>
+      <c r="F6" s="7">
+        <v>170</v>
+      </c>
+      <c r="G6" s="7">
+        <f>340/2</f>
+        <v>170</v>
+      </c>
+      <c r="H6" s="11">
+        <v>150</v>
+      </c>
+      <c r="I6" s="7">
+        <v>180</v>
+      </c>
+      <c r="J6" s="7">
+        <v>175</v>
+      </c>
+      <c r="K6" s="32">
+        <v>120</v>
+      </c>
+      <c r="L6" s="32">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7">
+        <v>100</v>
+      </c>
+      <c r="C7" s="7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="7">
+        <v>195</v>
+      </c>
+      <c r="E7" s="7">
+        <v>225</v>
+      </c>
+      <c r="F7" s="7">
+        <v>170</v>
+      </c>
+      <c r="G7" s="7">
+        <f>340/2</f>
+        <v>170</v>
+      </c>
+      <c r="H7" s="11">
+        <v>150</v>
+      </c>
+      <c r="I7" s="7">
+        <v>180</v>
+      </c>
+      <c r="J7" s="7">
+        <v>175</v>
+      </c>
+      <c r="K7" s="32">
+        <v>120</v>
+      </c>
+      <c r="L7" s="32">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="15">
+        <v>270</v>
+      </c>
+      <c r="C9" s="15">
+        <v>400</v>
+      </c>
+      <c r="D9" s="15">
+        <v>290</v>
+      </c>
+      <c r="E9" s="15">
+        <v>450</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
+        <f>420-170</f>
+        <v>250</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="15">
+        <v>400</v>
+      </c>
+      <c r="K9" s="35">
+        <v>250</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="58.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" ht="58.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="92"/>
+      <c r="B11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="92"/>
+      <c r="B12" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="29.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="93"/>
+      <c r="B13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G21" sqref="G21"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2086,42 +6430,42 @@
     <row r="1" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11">
         <v>200</v>
@@ -2152,7 +6496,7 @@
         <v>220</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" s="31">
         <v>200</v>
@@ -2160,7 +6504,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <v>160</v>
@@ -2199,7 +6543,7 @@
     </row>
     <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="24">
         <f>1-'22.03.22'!B4/B3</f>
@@ -2248,7 +6592,7 @@
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7">
         <v>110</v>
@@ -2287,7 +6631,7 @@
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
@@ -2326,14 +6670,14 @@
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -2344,7 +6688,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="15">
         <v>270</v>
@@ -2353,20 +6697,20 @@
         <v>400</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="15">
         <v>450</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="15">
         <v>400</v>
@@ -2375,117 +6719,117 @@
         <v>250</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="58" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="58" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92"/>
       <c r="B10" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
       <c r="B12" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -2494,7 +6838,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" s="21"/>
     </row>
@@ -2543,13 +6887,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2565,45 +6909,45 @@
     <row r="1" spans="1:13" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11">
         <v>200</v>
@@ -2636,7 +6980,7 @@
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" s="31">
         <v>200</v>
@@ -2644,7 +6988,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <v>160</v>
@@ -2684,7 +7028,7 @@
     </row>
     <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="24">
         <f>1-'9.04.22'!B3/B3</f>
@@ -2734,7 +7078,7 @@
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7">
         <v>110</v>
@@ -2774,7 +7118,7 @@
     </row>
     <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
@@ -2814,14 +7158,14 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -2833,7 +7177,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="15">
         <v>350</v>
@@ -2857,7 +7201,7 @@
         <v>340</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="15">
         <v>400</v>
@@ -2867,120 +7211,120 @@
         <v>250</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="58" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92"/>
       <c r="B10" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="29.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
       <c r="B12" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -2990,7 +7334,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="21"/>
     </row>
@@ -3043,13 +7387,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3065,42 +7409,42 @@
     <row r="1" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11">
         <v>200</v>
@@ -3132,7 +7476,7 @@
         <v>220</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" s="31">
         <v>200</v>
@@ -3140,7 +7484,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <v>160</v>
@@ -3179,7 +7523,7 @@
     </row>
     <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="24">
         <f>1-'10.05.22'!B3/B3</f>
@@ -3228,7 +7572,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7">
         <v>110</v>
@@ -3267,7 +7611,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
@@ -3306,14 +7650,14 @@
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -3324,7 +7668,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="15">
         <v>350</v>
@@ -3348,7 +7692,7 @@
         <v>340</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="15">
         <v>400</v>
@@ -3357,117 +7701,117 @@
         <v>250</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92"/>
       <c r="B10" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
       <c r="B12" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -3476,7 +7820,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" s="21"/>
     </row>
@@ -3526,13 +7870,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="112" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3548,45 +7892,45 @@
     <row r="1" spans="1:13" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11">
         <v>200</v>
@@ -3619,7 +7963,7 @@
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" s="31">
         <v>200</v>
@@ -3627,7 +7971,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <v>160</v>
@@ -3667,7 +8011,7 @@
     </row>
     <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="24">
         <f>1-'23.05.22 '!B3/B3</f>
@@ -3717,7 +8061,7 @@
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7">
         <v>110</v>
@@ -3757,7 +8101,7 @@
     </row>
     <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
@@ -3797,14 +8141,14 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -3816,7 +8160,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="15">
         <v>350</v>
@@ -3841,7 +8185,7 @@
         <v>340</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="15">
         <v>400</v>
@@ -3851,120 +8195,120 @@
         <v>250</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="58" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="92"/>
       <c r="B10" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="29.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
       <c r="B12" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -3974,7 +8318,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="21"/>
     </row>
@@ -4027,11 +8371,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A21" sqref="A21"/>
       <selection pane="topRight" activeCell="A21" sqref="A21"/>
@@ -4050,45 +8394,45 @@
     <row r="1" spans="1:13" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11">
         <v>200</v>
@@ -4113,14 +8457,14 @@
         <v>260</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" s="11">
         <v>220</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" s="31">
         <v>200</v>
@@ -4128,7 +8472,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <v>160</v>
@@ -4167,7 +8511,7 @@
     </row>
     <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="24">
         <f>1-'15.06.22'!B3/B3</f>
@@ -4217,14 +8561,14 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -4236,7 +8580,7 @@
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="15">
         <v>350</v>
@@ -4261,7 +8605,7 @@
         <v>340</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="15">
         <v>400</v>
@@ -4271,120 +8615,120 @@
         <v>250</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92"/>
       <c r="B8" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="93"/>
       <c r="B10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -4394,7 +8738,7 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M10" s="21"/>
     </row>
@@ -4441,40 +8785,40 @@
     <row r="19" spans="1:13" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -5348,14 +9692,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A21" sqref="A21"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5371,45 +9715,45 @@
     <row r="1" spans="1:13" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11">
         <v>200</v>
@@ -5434,14 +9778,14 @@
         <v>260</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" s="11">
         <v>220</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" s="31">
         <v>200</v>
@@ -5449,7 +9793,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <v>160</v>
@@ -5488,7 +9832,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -5505,7 +9849,7 @@
     </row>
     <row r="5" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -5573,14 +9917,14 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -5592,7 +9936,7 @@
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="15">
         <v>350</v>
@@ -5617,7 +9961,7 @@
         <v>340</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="15">
         <v>400</v>
@@ -5627,120 +9971,120 @@
         <v>250</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92"/>
       <c r="B10" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
       <c r="B12" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -5750,7 +10094,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="21"/>
     </row>
@@ -5806,8 +10150,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -5822,63 +10166,63 @@
     <row r="1" spans="1:19" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N1" s="70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O1" s="71" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="P1" s="71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="71" t="s">
         <v>92</v>
       </c>
       <c r="R1" s="71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S1" s="72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7">
         <f>MIN(D2:S2)</f>
@@ -5904,10 +10248,10 @@
         <v>220</v>
       </c>
       <c r="J2" s="83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" s="84">
         <v>200</v>
@@ -5936,7 +10280,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <f>MIN(D3:S3)</f>
@@ -6085,7 +10429,7 @@
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="7">
         <f>MIN(D8:S8)</f>
@@ -6093,19 +10437,19 @@
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="89">
         <v>420</v>
@@ -6114,7 +10458,7 @@
         <v>400</v>
       </c>
       <c r="K8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L8" s="90">
         <v>250</v>
@@ -6135,7 +10479,7 @@
         <v>500</v>
       </c>
       <c r="R8" s="80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S8" s="81">
         <v>350</v>
@@ -6146,12 +10490,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="N1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6162,63 +10506,63 @@
     <row r="1" spans="1:19" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N1" s="70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O1" s="71" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="P1" s="71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="71" t="s">
         <v>92</v>
       </c>
       <c r="R1" s="71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S1" s="72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7">
         <f>MIN(D2:S2)</f>
@@ -6244,10 +10588,10 @@
         <v>220</v>
       </c>
       <c r="J2" s="83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" s="84">
         <v>200</v>
@@ -6276,7 +10620,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <f>MIN(D3:S3)</f>
@@ -6473,7 +10817,7 @@
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="7">
         <f>MIN(D8:S8)</f>
@@ -6481,19 +10825,19 @@
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="89">
         <v>420</v>
@@ -6502,7 +10846,7 @@
         <v>400</v>
       </c>
       <c r="K8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L8" s="90">
         <v>250</v>
@@ -6523,7 +10867,7 @@
         <v>500</v>
       </c>
       <c r="R8" s="79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S8" s="81">
         <v>350</v>
@@ -6534,12 +10878,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="A1:XFD1048576"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6550,63 +10894,63 @@
     <row r="1" spans="1:19" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N1" s="70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O1" s="71" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="P1" s="71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="71" t="s">
         <v>92</v>
       </c>
       <c r="R1" s="71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S1" s="72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7">
         <f>MIN(D2:S2)</f>
@@ -6632,16 +10976,16 @@
         <v>220</v>
       </c>
       <c r="J2" s="83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" s="84">
         <v>200</v>
       </c>
       <c r="M2" s="73">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="N2" s="74">
         <v>323</v>
@@ -6666,7 +11010,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <f>MIN(D3:S3)</f>
@@ -6701,7 +11045,7 @@
         <v>140</v>
       </c>
       <c r="M3" s="66">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="N3" s="68">
         <v>285</v>
@@ -6721,7 +11065,7 @@
         <v>255</v>
       </c>
       <c r="S3" s="76">
-        <v>340</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -6815,7 +11159,7 @@
       </c>
       <c r="M6" s="7">
         <f>M3-'22.01.23'!M3</f>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f>N3-'22.01.23'!N3</f>
@@ -6839,7 +11183,7 @@
       </c>
       <c r="S6" s="7">
         <f>S3-'22.01.23'!S3</f>
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -6865,7 +11209,7 @@
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="7">
         <f>MIN(D8:S8)</f>
@@ -6873,19 +11217,19 @@
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="89">
         <v>420</v>
@@ -6894,7 +11238,7 @@
         <v>350</v>
       </c>
       <c r="K8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L8" s="90">
         <v>250</v>
@@ -6917,7 +11261,7 @@
         <v>500</v>
       </c>
       <c r="R8" s="79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S8" s="81">
         <v>350</v>
@@ -6928,12 +11272,178 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B78CC2-06DA-684B-B923-EAF14D7B6302}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="36">
+        <v>44894</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="46">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="36">
+        <v>44894</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="46">
+        <v>380</v>
+      </c>
+      <c r="F3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="36">
+        <v>44894</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="46">
+        <v>200</v>
+      </c>
+      <c r="F4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="36">
+        <v>44896</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="46">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <f>E5/D5</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="36">
+        <v>44896</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="46">
+        <v>380</v>
+      </c>
+      <c r="F6">
+        <f>E6/D6</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="36">
+        <v>44896</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="46">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6944,63 +11454,63 @@
     <row r="1" spans="1:19" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N1" s="70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O1" s="71" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="P1" s="71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="71" t="s">
         <v>92</v>
       </c>
       <c r="R1" s="71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S1" s="72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7">
         <f>MIN(D2:S2)</f>
@@ -7026,16 +11536,16 @@
         <v>220</v>
       </c>
       <c r="J2" s="83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" s="84">
         <v>200</v>
       </c>
       <c r="M2" s="73">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="N2" s="74">
         <v>323</v>
@@ -7060,7 +11570,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <f>MIN(D3:S3)</f>
@@ -7095,7 +11605,7 @@
         <v>140</v>
       </c>
       <c r="M3" s="66">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="N3" s="68">
         <v>285</v>
@@ -7115,7 +11625,7 @@
         <v>255</v>
       </c>
       <c r="S3" s="76">
-        <v>340</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -7209,7 +11719,7 @@
       </c>
       <c r="M6" s="7">
         <f>M3-'22.01.23'!M3</f>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f>N3-'22.01.23'!N3</f>
@@ -7233,7 +11743,7 @@
       </c>
       <c r="S6" s="7">
         <f>S3-'22.01.23'!S3</f>
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -7259,7 +11769,7 @@
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="7">
         <f>MIN(D8:S8)</f>
@@ -7267,19 +11777,19 @@
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="89">
         <v>420</v>
@@ -7288,7 +11798,7 @@
         <v>350</v>
       </c>
       <c r="K8" s="89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L8" s="90">
         <v>250</v>
@@ -7311,7 +11821,7 @@
         <v>500</v>
       </c>
       <c r="R8" s="79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S8" s="81">
         <v>350</v>
@@ -7322,8 +11832,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7341,7 +11851,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="36">
         <f>'СБОР ДАННЫХ'!A6</f>
@@ -7350,7 +11860,7 @@
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="36">
         <f>'СБОР ДАННЫХ'!A3</f>
@@ -7360,44 +11870,44 @@
     <row r="3" spans="1:14" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -7418,7 +11928,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -7439,7 +11949,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -7460,7 +11970,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -7481,7 +11991,7 @@
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -7502,12 +12012,12 @@
     </row>
     <row r="9" spans="1:14" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -7525,7 +12035,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -7543,7 +12053,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -7624,8 +12134,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7642,31 +12152,31 @@
     <row r="1" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -7817,13 +12327,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7837,70 +12347,70 @@
     <row r="1" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <v>119</v>
@@ -7932,7 +12442,7 @@
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="7">
         <v>110</v>
@@ -7950,7 +12460,7 @@
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="7">
         <v>100</v>
@@ -7968,7 +12478,7 @@
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -7984,7 +12494,7 @@
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -8000,7 +12510,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -8101,13 +12611,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8121,38 +12631,38 @@
     <row r="1" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11">
         <v>160</v>
@@ -8184,7 +12694,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <v>140</v>
@@ -8216,14 +12726,14 @@
     </row>
     <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="24">
         <f>1-'02.18'!B3/B3</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="24">
         <f>1-'02.18'!D3/D3</f>
@@ -8242,7 +12752,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="24">
         <f>1-'02.18'!I3/I3</f>
@@ -8253,15 +12763,15 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7">
         <v>110</v>
@@ -8279,7 +12789,7 @@
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
@@ -8297,7 +12807,7 @@
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -8313,7 +12823,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="15">
         <v>250</v>
@@ -8346,7 +12856,7 @@
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -8447,8 +12957,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8470,23 +12980,23 @@
         <v>44743</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="39">
         <v>44805</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -8509,7 +13019,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>160</v>
@@ -8532,7 +13042,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>140</v>
@@ -8555,7 +13065,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>120</v>
@@ -8583,7 +13093,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="40"/>
@@ -8591,7 +13101,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>230</v>
@@ -8614,7 +13124,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -8637,7 +13147,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>180</v>
@@ -8660,7 +13170,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>160</v>
@@ -8687,13 +13197,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="A1:C3"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8707,42 +13217,42 @@
     <row r="1" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11">
         <v>180</v>
@@ -8773,7 +13283,7 @@
         <v>200</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" s="11">
         <v>200</v>
@@ -8781,7 +13291,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <v>140</v>
@@ -8819,7 +13329,7 @@
     </row>
     <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="24">
         <f>1-'27.04.21'!B3/B3</f>
@@ -8846,7 +13356,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="24">
         <f>1-'27.04.21'!I3/I3</f>
@@ -8857,15 +13367,15 @@
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7">
         <v>110</v>
@@ -8904,7 +13414,7 @@
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
@@ -8943,14 +13453,14 @@
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -8961,7 +13471,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="15">
         <v>270</v>
@@ -8981,10 +13491,10 @@
         <v>250</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="15">
         <v>400</v>
@@ -8993,117 +13503,117 @@
         <v>250</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92"/>
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
       <c r="B12" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -9112,7 +13622,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" s="9"/>
     </row>
@@ -9161,13 +13671,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9183,42 +13693,42 @@
     <row r="1" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11">
         <v>180</v>
@@ -9249,7 +13759,7 @@
         <v>220</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" s="11">
         <v>200</v>
@@ -9257,7 +13767,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="7">
         <v>140</v>
@@ -9296,7 +13806,7 @@
     </row>
     <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="24">
         <f>1-'27.01.22'!B3/B3</f>
@@ -9345,7 +13855,7 @@
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7">
         <v>110</v>
@@ -9384,7 +13894,7 @@
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
@@ -9423,14 +13933,14 @@
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -9441,7 +13951,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="15">
         <v>270</v>
@@ -9461,10 +13971,10 @@
         <v>250</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="15">
         <v>400</v>
@@ -9473,117 +13983,117 @@
         <v>250</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="92"/>
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
       <c r="B12" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -9592,7 +14102,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" s="21"/>
     </row>
@@ -9639,485 +14149,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L16"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="2" customWidth="1"/>
-    <col min="9" max="12" width="18.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="11">
-        <v>180</v>
-      </c>
-      <c r="C3" s="11">
-        <v>200</v>
-      </c>
-      <c r="D3" s="11">
-        <v>246</v>
-      </c>
-      <c r="E3" s="11">
-        <v>255</v>
-      </c>
-      <c r="F3" s="11">
-        <v>250</v>
-      </c>
-      <c r="G3" s="11">
-        <v>200</v>
-      </c>
-      <c r="H3" s="11">
-        <v>150</v>
-      </c>
-      <c r="I3" s="11">
-        <f>180+60</f>
-        <v>240</v>
-      </c>
-      <c r="J3" s="11">
-        <v>220</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="31">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="7">
-        <v>140</v>
-      </c>
-      <c r="C4" s="7">
-        <v>180</v>
-      </c>
-      <c r="D4" s="7">
-        <v>195</v>
-      </c>
-      <c r="E4" s="7">
-        <v>230</v>
-      </c>
-      <c r="F4" s="7">
-        <v>180</v>
-      </c>
-      <c r="G4" s="7">
-        <f>340/2</f>
-        <v>170</v>
-      </c>
-      <c r="H4" s="11">
-        <v>150</v>
-      </c>
-      <c r="I4" s="7">
-        <v>180</v>
-      </c>
-      <c r="J4" s="7">
-        <v>175</v>
-      </c>
-      <c r="K4" s="32">
-        <v>120</v>
-      </c>
-      <c r="L4" s="32">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="24">
-        <f>1-'15.03.22'!B3/B4</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="24">
-        <f>1-'15.03.22'!C3/C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="24">
-        <f>1-'15.03.22'!D3/D4</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="24">
-        <f>1-'15.03.22'!E3/E4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="24">
-        <f>1-'15.03.22'!F3/F4</f>
-        <v>5.555555555555558E-2</v>
-      </c>
-      <c r="G5" s="24">
-        <f>1-'15.03.22'!G3/G4</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="24">
-        <f>1-'15.03.22'!H3/H4</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="24">
-        <f>1-'15.03.22'!I3/I4</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="24">
-        <f>1-'15.03.22'!J3/J4</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="33">
-        <f>1-'15.03.22'!K3/K4</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="33">
-        <f>1-'15.03.22'!L3/L4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="7">
-        <v>110</v>
-      </c>
-      <c r="C6" s="7">
-        <v>130</v>
-      </c>
-      <c r="D6" s="7">
-        <v>195</v>
-      </c>
-      <c r="E6" s="7">
-        <v>225</v>
-      </c>
-      <c r="F6" s="7">
-        <v>170</v>
-      </c>
-      <c r="G6" s="7">
-        <f>340/2</f>
-        <v>170</v>
-      </c>
-      <c r="H6" s="11">
-        <v>150</v>
-      </c>
-      <c r="I6" s="7">
-        <v>180</v>
-      </c>
-      <c r="J6" s="7">
-        <v>175</v>
-      </c>
-      <c r="K6" s="32">
-        <v>120</v>
-      </c>
-      <c r="L6" s="32">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="7">
-        <v>100</v>
-      </c>
-      <c r="C7" s="7">
-        <v>100</v>
-      </c>
-      <c r="D7" s="7">
-        <v>195</v>
-      </c>
-      <c r="E7" s="7">
-        <v>225</v>
-      </c>
-      <c r="F7" s="7">
-        <v>170</v>
-      </c>
-      <c r="G7" s="7">
-        <f>340/2</f>
-        <v>170</v>
-      </c>
-      <c r="H7" s="11">
-        <v>150</v>
-      </c>
-      <c r="I7" s="7">
-        <v>180</v>
-      </c>
-      <c r="J7" s="7">
-        <v>175</v>
-      </c>
-      <c r="K7" s="32">
-        <v>120</v>
-      </c>
-      <c r="L7" s="32">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="15">
-        <v>270</v>
-      </c>
-      <c r="C9" s="15">
-        <v>400</v>
-      </c>
-      <c r="D9" s="15">
-        <v>290</v>
-      </c>
-      <c r="E9" s="15">
-        <v>450</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
-        <f>420-170</f>
-        <v>250</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="15">
-        <v>400</v>
-      </c>
-      <c r="K9" s="35">
-        <v>250</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="58.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:12" ht="58.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
-      <c r="B11" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="1:12" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="92"/>
-      <c r="B12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="29.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A10:A13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislav/Documents/GitHub/water/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA77EBF-FD31-624C-AA79-A5A2F3BEB5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339A25E4-CE23-6D4E-BF63-6FE7BDD50870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Графики" sheetId="1" r:id="rId1"/>
@@ -296,10 +296,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="110">
   <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Аквамобиль Аква Ирендык</t>
+  </si>
+  <si>
+    <t>Аквамобил Архыз</t>
+  </si>
+  <si>
+    <t>Аквамобил Артенза</t>
+  </si>
+  <si>
+    <t>Аквамобил Кукузар</t>
+  </si>
+  <si>
+    <t>Аквамобил сосновская</t>
+  </si>
+  <si>
+    <t>Чебаркульский исток</t>
+  </si>
+  <si>
     <t>Кристальная</t>
   </si>
   <si>
+    <t>Горный ОАЗИС</t>
+  </si>
+  <si>
+    <t>Любимая+</t>
+  </si>
+  <si>
+    <t>Люкс вода</t>
+  </si>
+  <si>
+    <t>Люкс вода Люксик</t>
+  </si>
+  <si>
     <t>Ниагара</t>
+  </si>
+  <si>
+    <t>Ниагара Премиум</t>
+  </si>
+  <si>
+    <t>Ниагара Премиум Кавказ</t>
+  </si>
+  <si>
+    <t>Власов ключ</t>
+  </si>
+  <si>
+    <t>Живая капля</t>
+  </si>
+  <si>
+    <t>26.01.23</t>
   </si>
   <si>
     <t>дата</t>
@@ -338,28 +386,13 @@
     <t>Платинум</t>
   </si>
   <si>
-    <t>Люкс вода</t>
-  </si>
-  <si>
     <t>Люкс вода детская</t>
   </si>
   <si>
     <t xml:space="preserve">Ниагара </t>
   </si>
   <si>
-    <t>Ниагара Премиум</t>
-  </si>
-  <si>
-    <t>Живая капля</t>
-  </si>
-  <si>
     <t>ОАЗИС</t>
-  </si>
-  <si>
-    <t>Власов ключ</t>
-  </si>
-  <si>
-    <t>Чебаркульский исток</t>
   </si>
   <si>
     <t>19л 1шт</t>
@@ -405,9 +438,6 @@
   </si>
   <si>
     <t>Изменеие, %</t>
-  </si>
-  <si>
-    <t>Любимая+</t>
   </si>
   <si>
     <t>Артенза</t>
@@ -587,79 +617,49 @@
     <t>цена на дату:</t>
   </si>
   <si>
-    <t>Аквамобиль Аква Ирендык</t>
-  </si>
-  <si>
-    <t>Аквамобил Архыз</t>
-  </si>
-  <si>
-    <t>Аквамобил Артенза</t>
-  </si>
-  <si>
-    <t>Аквамобил Кукузар</t>
-  </si>
-  <si>
-    <t>Аквамобил сосновская</t>
-  </si>
-  <si>
-    <t>Горный ОАЗИС</t>
-  </si>
-  <si>
-    <t>Люкс вода Люксик</t>
-  </si>
-  <si>
-    <t>Ниагара Премиум Кавказ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Изм.цены с </t>
   </si>
   <si>
     <t>прошлой даты</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t>01.02.18</t>
   </si>
   <si>
-    <t>01.02.2018</t>
+    <t>27.04.21</t>
   </si>
   <si>
-    <t>27.04.2021</t>
+    <t>27.01.22</t>
   </si>
   <si>
-    <t>27.01.2022</t>
+    <t>15.03.22</t>
   </si>
   <si>
-    <t>15.03.2022</t>
+    <t>22.03.22</t>
   </si>
   <si>
-    <t>22.03.2022</t>
+    <t>09.04.22</t>
   </si>
   <si>
-    <t>09.04.2022</t>
+    <t>10.05.22</t>
   </si>
   <si>
-    <t>10.05.2022</t>
+    <t>23.05.22</t>
   </si>
   <si>
-    <t>23.05.2022</t>
+    <t>15.06.22</t>
   </si>
   <si>
-    <t>15.06.2022</t>
+    <t>26.10.22</t>
   </si>
   <si>
-    <t>26.10.2022</t>
+    <t>21.01.23</t>
   </si>
   <si>
-    <t>21.01.2023</t>
+    <t>22.01.23</t>
   </si>
   <si>
-    <t>22.01.2023</t>
-  </si>
-  <si>
-    <t>25.01.2023</t>
-  </si>
-  <si>
-    <t>26.01.2023</t>
+    <t>25.01.23</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,13 +756,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1180,7 +1173,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1410,38 +1403,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1531,7 +1520,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1552,29 +1541,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1601,9 +1570,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1614,46 +1583,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1682,7 +1651,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{00000000-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1705,9 +1674,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1718,46 +1687,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1786,7 +1755,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{00000001-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1809,9 +1778,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1822,46 +1791,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1914,7 +1883,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{00000002-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1937,9 +1906,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1950,46 +1919,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2018,7 +1987,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{00000003-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2041,9 +2010,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2054,46 +2023,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2122,7 +2091,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{00000004-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2145,9 +2114,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2158,46 +2127,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2256,7 +2225,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{00000005-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2281,9 +2250,9 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2294,46 +2263,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2375,7 +2344,7 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>180</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>175</c:v>
@@ -2392,7 +2361,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{00000006-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2417,9 +2386,9 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2430,46 +2399,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2525,7 +2494,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{00000007-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2550,9 +2519,9 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2563,46 +2532,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2655,7 +2624,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{00000008-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2680,9 +2649,9 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2693,46 +2662,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2791,7 +2760,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{00000009-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2816,9 +2785,9 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2829,46 +2798,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2897,7 +2866,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{0000000A-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2922,9 +2891,9 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2935,46 +2904,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3033,7 +3002,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{0000000B-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3059,9 +3028,9 @@
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3072,46 +3041,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3140,7 +3109,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{0000000C-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3166,9 +3135,9 @@
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3179,46 +3148,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3247,7 +3216,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{0000000D-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3273,9 +3242,9 @@
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3286,46 +3255,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3384,7 +3353,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{0000000E-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3410,9 +3379,9 @@
                   <a:lumOff val="20000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3423,46 +3392,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2018</c:v>
+                  <c:v>01.02.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.04.2021</c:v>
+                  <c:v>27.04.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.01.2022</c:v>
+                  <c:v>27.01.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.03.2022</c:v>
+                  <c:v>15.03.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.03.2022</c:v>
+                  <c:v>22.03.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>09.04.2022</c:v>
+                  <c:v>09.04.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.05.2022</c:v>
+                  <c:v>10.05.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.05.2022</c:v>
+                  <c:v>23.05.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.06.2022</c:v>
+                  <c:v>15.06.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.10.2022</c:v>
+                  <c:v>26.10.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.01.2023</c:v>
+                  <c:v>21.01.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.01.2023</c:v>
+                  <c:v>22.01.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.01.2023</c:v>
+                  <c:v>25.01.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.01.2023</c:v>
+                  <c:v>26.01.23</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3521,7 +3490,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-3F6B-FF40-8326-7E520377A0D7}"/>
+              <c16:uniqueId val="{0000000F-155E-8242-AF24-5BEA2A2C5B21}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3557,16 +3526,16 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3604,9 +3573,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0" sourceLinked="1"/>
@@ -3617,15 +3586,15 @@
           <a:noFill/>
           <a:ln>
             <a:noFill/>
+            <a:prstDash val="solid"/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3645,13 +3614,6 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -3660,15 +3622,15 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3686,40 +3648,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-RU"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3832,7 +3762,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9243-0943-AE3C-545CA5D46FED}"/>
+              <c16:uniqueId val="{00000000-D07D-264A-85E7-9738D884BC39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3967,562 +3897,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4540,10 +3914,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BCE37E-8C07-9B49-66AA-A5AADF8481BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4606,26 +3980,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8ED5FD52-4186-8747-85C4-7AE2131A4FBA}" name="Table2" displayName="Table2" ref="A1:Q15" totalsRowShown="0">
-  <autoFilter ref="A1:Q15" xr:uid="{8ED5FD52-4186-8747-85C4-7AE2131A4FBA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:Q15" totalsRowShown="0">
+  <autoFilter ref="A1:Q15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{9DB6DC96-312F-BB44-A930-CD1252B1E4F2}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{084190F3-973C-514B-8290-1F92A06981E0}" name="Аквамобиль Аква Ирендык" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{58A10194-9E32-AD45-996F-91E32E8B4638}" name="Аквамобил Архыз" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{60927FFA-ACFD-354A-909D-3AB157B3D959}" name="Аквамобил Артенза" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{3C3BE93D-3485-C447-9A8B-AFA3885366A2}" name="Аквамобил Кукузар" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{017266D5-58CB-EB41-9020-337FA85BA585}" name="Аквамобил сосновская" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{ABF6F64F-F245-DF42-B579-F71BE3F0CE15}" name="Чебаркульский исток" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{0A8DB3FC-1AC5-2A44-8E08-1C598012A111}" name="Кристальная" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{FB9EDD56-DA22-874A-A250-D73799F9C5F1}" name="Горный ОАЗИС" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{E545F258-3FDA-224B-AC46-ACA740E455B1}" name="Любимая+" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{C05361E7-CDDE-F046-AAC0-BEBDCD5333EA}" name="Люкс вода" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{2D045DC0-2780-4D4A-BECC-A92A0068F566}" name="Люкс вода Люксик" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{93609754-7FE6-C643-81DC-C64349C8B475}" name="Ниагара" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{6B5CCA2D-6855-9641-922C-74C17FF6FDF8}" name="Ниагара Премиум" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{7CCF6124-03E6-4248-9546-405FC9709865}" name="Ниагара Премиум Кавказ" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{359BE776-600E-C946-A919-73B1558B0F4D}" name="Власов ключ" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{E784DF6D-9613-4B4C-989B-46AB5CEE17A4}" name="Живая капля" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Аквамобиль Аква Ирендык" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Аквамобил Архыз" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Аквамобил Артенза" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Аквамобил Кукузар" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Аквамобил сосновская" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Чебаркульский исток" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Кристальная" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Горный ОАЗИС" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Любимая+" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Люкс вода" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Люкс вода Люксик" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Ниагара" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Ниагара Премиум" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Ниагара Премиум Кавказ" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Власов ключ" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Живая капля" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4896,8 +4270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="75" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4907,1018 +4281,1008 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97">
+        <v>100</v>
+      </c>
+      <c r="H2" s="97">
+        <v>140</v>
+      </c>
+      <c r="I2" s="97">
+        <v>110</v>
+      </c>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97">
+        <v>163</v>
+      </c>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97">
+        <v>150</v>
+      </c>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97">
+        <v>170</v>
+      </c>
+      <c r="Q2" s="97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97">
+        <v>140</v>
+      </c>
+      <c r="H3" s="97">
+        <v>150</v>
+      </c>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97">
+        <v>180</v>
+      </c>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97">
+        <v>189</v>
+      </c>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97">
+        <v>180</v>
+      </c>
+      <c r="Q3" s="97">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97">
+        <v>175</v>
+      </c>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97">
+        <v>150</v>
+      </c>
+      <c r="H4" s="97">
+        <v>170</v>
+      </c>
+      <c r="I4" s="97">
+        <v>145</v>
+      </c>
+      <c r="J4" s="97">
+        <v>120</v>
+      </c>
+      <c r="K4" s="97">
+        <v>184</v>
+      </c>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97">
+        <v>199</v>
+      </c>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97">
+        <v>180</v>
+      </c>
+      <c r="Q4" s="97">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97">
+        <v>175</v>
+      </c>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97">
+        <v>175</v>
+      </c>
+      <c r="H5" s="97">
+        <v>170</v>
+      </c>
+      <c r="I5" s="97">
+        <v>150</v>
+      </c>
+      <c r="J5" s="97">
+        <v>120</v>
+      </c>
+      <c r="K5" s="97">
+        <v>195</v>
+      </c>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97">
+        <v>230</v>
+      </c>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="97">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97">
+        <v>175</v>
+      </c>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97">
+        <v>175</v>
+      </c>
+      <c r="H6" s="97">
+        <v>180</v>
+      </c>
+      <c r="I6" s="97">
+        <v>150</v>
+      </c>
+      <c r="J6" s="97">
+        <v>120</v>
+      </c>
+      <c r="K6" s="97">
+        <v>195</v>
+      </c>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97">
+        <v>230</v>
+      </c>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97">
+        <v>180</v>
+      </c>
+      <c r="Q6" s="97">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97">
+        <v>175</v>
+      </c>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97">
+        <v>175</v>
+      </c>
+      <c r="H7" s="97">
+        <v>180</v>
+      </c>
+      <c r="I7" s="97">
+        <v>170</v>
+      </c>
+      <c r="J7" s="97">
+        <v>120</v>
+      </c>
+      <c r="K7" s="97">
+        <v>216</v>
+      </c>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97">
+        <v>230</v>
+      </c>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97">
+        <v>195</v>
+      </c>
+      <c r="Q7" s="97">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97">
+        <v>175</v>
+      </c>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97">
+        <v>175</v>
+      </c>
+      <c r="H8" s="97">
+        <v>180</v>
+      </c>
+      <c r="I8" s="97">
+        <v>170</v>
+      </c>
+      <c r="J8" s="97">
+        <v>120</v>
+      </c>
+      <c r="K8" s="97">
+        <v>216</v>
+      </c>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97">
+        <v>230</v>
+      </c>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97">
+        <v>195</v>
+      </c>
+      <c r="Q8" s="97">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97">
+        <v>175</v>
+      </c>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97">
+        <v>175</v>
+      </c>
+      <c r="H9" s="97">
+        <v>180</v>
+      </c>
+      <c r="I9" s="97">
+        <v>170</v>
+      </c>
+      <c r="J9" s="97">
+        <v>120</v>
+      </c>
+      <c r="K9" s="97">
+        <v>216</v>
+      </c>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97">
+        <v>230</v>
+      </c>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97">
+        <v>195</v>
+      </c>
+      <c r="Q9" s="97">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97">
+        <v>175</v>
+      </c>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97">
+        <v>175</v>
+      </c>
+      <c r="H10" s="97">
+        <v>180</v>
+      </c>
+      <c r="I10" s="97">
+        <v>170</v>
+      </c>
+      <c r="J10" s="97">
+        <v>120</v>
+      </c>
+      <c r="K10" s="97">
+        <v>216</v>
+      </c>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97">
+        <v>230</v>
+      </c>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="97">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97">
+        <v>175</v>
+      </c>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="98">
+        <v>175</v>
+      </c>
+      <c r="H11" s="98">
+        <v>180</v>
+      </c>
+      <c r="I11" s="98">
+        <v>170</v>
+      </c>
+      <c r="J11" s="98">
+        <v>140</v>
+      </c>
+      <c r="K11" s="98">
+        <v>216</v>
+      </c>
+      <c r="L11" s="99"/>
+      <c r="M11" s="98">
+        <v>245</v>
+      </c>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="98">
+        <v>230</v>
+      </c>
+      <c r="Q11" s="98">
+        <v>170</v>
+      </c>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="97">
+        <f>'21.01.23'!D3</f>
+        <v>275</v>
+      </c>
+      <c r="C12" s="97">
+        <f>'21.01.23'!E3</f>
+        <v>525</v>
+      </c>
+      <c r="D12" s="97">
+        <f>'21.01.23'!F3</f>
+        <v>175</v>
+      </c>
+      <c r="E12" s="97">
+        <f>'21.01.23'!G3</f>
+        <v>225</v>
+      </c>
+      <c r="F12" s="97">
+        <f>'21.01.23'!H3</f>
+        <v>200</v>
+      </c>
+      <c r="G12" s="97">
+        <f>'21.01.23'!I3</f>
+        <v>175</v>
+      </c>
+      <c r="H12" s="97">
+        <f>'21.01.23'!J3</f>
+        <v>175</v>
+      </c>
+      <c r="I12" s="97">
+        <f>'21.01.23'!K3</f>
+        <v>170</v>
+      </c>
+      <c r="J12" s="97">
+        <f>'21.01.23'!L3</f>
+        <v>140</v>
+      </c>
+      <c r="K12" s="97">
+        <f>'21.01.23'!M3</f>
+        <v>228</v>
+      </c>
+      <c r="L12" s="97">
+        <f>'21.01.23'!N3</f>
+        <v>285</v>
+      </c>
+      <c r="M12" s="97">
+        <f>'21.01.23'!O3</f>
+        <v>209</v>
+      </c>
+      <c r="N12" s="97">
+        <f>'21.01.23'!P3</f>
+        <v>245</v>
+      </c>
+      <c r="O12" s="97">
+        <f>'21.01.23'!Q3</f>
+        <v>430</v>
+      </c>
+      <c r="P12" s="97">
+        <f>'21.01.23'!R3</f>
+        <v>255</v>
+      </c>
+      <c r="Q12" s="97">
+        <f>'21.01.23'!S3</f>
+        <v>170</v>
+      </c>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="97">
+        <f>'22.01.23'!D3</f>
+        <v>275</v>
+      </c>
+      <c r="C13" s="97">
+        <f>'22.01.23'!E3</f>
+        <v>525</v>
+      </c>
+      <c r="D13" s="97">
+        <f>'22.01.23'!F3</f>
+        <v>175</v>
+      </c>
+      <c r="E13" s="97">
+        <f>'22.01.23'!G3</f>
+        <v>225</v>
+      </c>
+      <c r="F13" s="97">
+        <f>'22.01.23'!H3</f>
+        <v>200</v>
+      </c>
+      <c r="G13" s="97">
+        <f>'22.01.23'!I3</f>
+        <v>175</v>
+      </c>
+      <c r="H13" s="97">
+        <f>'22.01.23'!J3</f>
+        <v>175</v>
+      </c>
+      <c r="I13" s="97">
+        <f>'22.01.23'!K3</f>
+        <v>170</v>
+      </c>
+      <c r="J13" s="97">
+        <f>'22.01.23'!L3</f>
+        <v>140</v>
+      </c>
+      <c r="K13" s="97">
+        <f>'22.01.23'!M3</f>
+        <v>228</v>
+      </c>
+      <c r="L13" s="97">
+        <f>'22.01.23'!N3</f>
+        <v>285</v>
+      </c>
+      <c r="M13" s="97">
+        <f>'22.01.23'!O3</f>
+        <v>209</v>
+      </c>
+      <c r="N13" s="97">
+        <f>'22.01.23'!P3</f>
+        <v>245</v>
+      </c>
+      <c r="O13" s="97">
+        <f>'22.01.23'!Q3</f>
+        <v>430</v>
+      </c>
+      <c r="P13" s="97">
+        <f>'22.01.23'!R3</f>
+        <v>255</v>
+      </c>
+      <c r="Q13" s="97">
+        <f>'25.01.23'!S3</f>
+        <v>170</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="97">
+        <f>'25.01.23'!D3</f>
+        <v>275</v>
+      </c>
+      <c r="C14" s="97">
+        <f>'25.01.23'!E3</f>
+        <v>525</v>
+      </c>
+      <c r="D14" s="97">
+        <f>'25.01.23'!F3</f>
+        <v>175</v>
+      </c>
+      <c r="E14" s="97">
+        <f>'25.01.23'!G3</f>
+        <v>225</v>
+      </c>
+      <c r="F14" s="97">
+        <f>'25.01.23'!H3</f>
+        <v>200</v>
+      </c>
+      <c r="G14" s="97">
+        <f>'25.01.23'!I3</f>
+        <v>175</v>
+      </c>
+      <c r="H14" s="97">
+        <f>'25.01.23'!J3</f>
+        <v>180</v>
+      </c>
+      <c r="I14" s="97">
+        <f>'25.01.23'!K3</f>
+        <v>170</v>
+      </c>
+      <c r="J14" s="97">
+        <f>'25.01.23'!L3</f>
+        <v>140</v>
+      </c>
+      <c r="K14" s="97">
+        <f>'25.01.23'!M3</f>
+        <v>228</v>
+      </c>
+      <c r="L14" s="97">
+        <f>'25.01.23'!N3</f>
+        <v>285</v>
+      </c>
+      <c r="M14" s="97">
+        <f>'25.01.23'!O3</f>
+        <v>209</v>
+      </c>
+      <c r="N14" s="97">
+        <f>'25.01.23'!P3</f>
+        <v>245</v>
+      </c>
+      <c r="O14" s="97">
+        <f>'25.01.23'!Q3</f>
+        <v>430</v>
+      </c>
+      <c r="P14" s="97">
+        <f>'25.01.23'!R3</f>
+        <v>255</v>
+      </c>
+      <c r="Q14" s="97">
+        <f>'25.01.23'!S3</f>
+        <v>170</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102">
-        <v>100</v>
-      </c>
-      <c r="H2" s="102">
-        <v>140</v>
-      </c>
-      <c r="I2" s="102">
-        <v>110</v>
-      </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102">
-        <v>163</v>
-      </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102">
-        <v>150</v>
-      </c>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102">
-        <v>170</v>
-      </c>
-      <c r="Q2" s="102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102">
-        <v>140</v>
-      </c>
-      <c r="H3" s="102">
-        <v>150</v>
-      </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102">
-        <v>180</v>
-      </c>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102">
-        <v>189</v>
-      </c>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102">
-        <v>180</v>
-      </c>
-      <c r="Q3" s="102">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102">
-        <v>175</v>
-      </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102">
-        <v>150</v>
-      </c>
-      <c r="H4" s="102">
-        <v>170</v>
-      </c>
-      <c r="I4" s="102">
-        <v>145</v>
-      </c>
-      <c r="J4" s="102">
-        <v>120</v>
-      </c>
-      <c r="K4" s="102">
-        <v>184</v>
-      </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102">
-        <v>199</v>
-      </c>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102">
-        <v>180</v>
-      </c>
-      <c r="Q4" s="102">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102">
-        <v>175</v>
-      </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102">
-        <v>175</v>
-      </c>
-      <c r="H5" s="102">
-        <v>170</v>
-      </c>
-      <c r="I5" s="102">
-        <v>150</v>
-      </c>
-      <c r="J5" s="102">
-        <v>120</v>
-      </c>
-      <c r="K5" s="102">
-        <v>195</v>
-      </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102">
-        <v>230</v>
-      </c>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102">
-        <v>180</v>
-      </c>
-      <c r="Q5" s="102">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102">
-        <v>175</v>
-      </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102">
-        <v>175</v>
-      </c>
-      <c r="H6" s="102">
-        <v>180</v>
-      </c>
-      <c r="I6" s="102">
-        <v>150</v>
-      </c>
-      <c r="J6" s="102">
-        <v>120</v>
-      </c>
-      <c r="K6" s="102">
-        <v>195</v>
-      </c>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102">
-        <v>230</v>
-      </c>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102">
-        <v>180</v>
-      </c>
-      <c r="Q6" s="102">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102">
-        <v>175</v>
-      </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102">
-        <v>175</v>
-      </c>
-      <c r="H7" s="102">
-        <v>180</v>
-      </c>
-      <c r="I7" s="102">
-        <v>170</v>
-      </c>
-      <c r="J7" s="102">
-        <v>120</v>
-      </c>
-      <c r="K7" s="102">
-        <v>216</v>
-      </c>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102">
-        <v>230</v>
-      </c>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102">
-        <v>195</v>
-      </c>
-      <c r="Q7" s="102">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102">
-        <v>175</v>
-      </c>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102">
-        <v>175</v>
-      </c>
-      <c r="H8" s="102">
-        <v>180</v>
-      </c>
-      <c r="I8" s="102">
-        <v>170</v>
-      </c>
-      <c r="J8" s="102">
-        <v>120</v>
-      </c>
-      <c r="K8" s="102">
-        <v>216</v>
-      </c>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102">
-        <v>230</v>
-      </c>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102">
-        <v>195</v>
-      </c>
-      <c r="Q8" s="102">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102">
-        <v>175</v>
-      </c>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102">
-        <v>175</v>
-      </c>
-      <c r="H9" s="102">
-        <v>180</v>
-      </c>
-      <c r="I9" s="102">
-        <v>170</v>
-      </c>
-      <c r="J9" s="102">
-        <v>120</v>
-      </c>
-      <c r="K9" s="102">
-        <v>216</v>
-      </c>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102">
-        <v>230</v>
-      </c>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102">
-        <v>195</v>
-      </c>
-      <c r="Q9" s="102">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102">
-        <v>175</v>
-      </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102">
-        <v>175</v>
-      </c>
-      <c r="H10" s="102">
-        <v>180</v>
-      </c>
-      <c r="I10" s="102">
-        <v>170</v>
-      </c>
-      <c r="J10" s="102">
-        <v>120</v>
-      </c>
-      <c r="K10" s="102">
-        <v>216</v>
-      </c>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102">
-        <v>230</v>
-      </c>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102">
-        <v>195</v>
-      </c>
-      <c r="Q10" s="102">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102">
-        <v>175</v>
-      </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103">
-        <v>175</v>
-      </c>
-      <c r="H11" s="103">
-        <v>180</v>
-      </c>
-      <c r="I11" s="103">
-        <v>170</v>
-      </c>
-      <c r="J11" s="103">
-        <v>140</v>
-      </c>
-      <c r="K11" s="103">
-        <v>216</v>
-      </c>
-      <c r="L11" s="104"/>
-      <c r="M11" s="103">
-        <v>245</v>
-      </c>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="103">
-        <v>230</v>
-      </c>
-      <c r="Q11" s="103">
-        <v>170</v>
-      </c>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="101" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="102">
+      <c r="B15" s="97">
         <f>'26.01.23'!D3</f>
         <v>275</v>
       </c>
-      <c r="C12" s="102">
+      <c r="C15" s="97">
         <f>'26.01.23'!E3</f>
         <v>525</v>
       </c>
-      <c r="D12" s="102">
+      <c r="D15" s="97">
         <f>'26.01.23'!F3</f>
         <v>175</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E15" s="97">
         <f>'26.01.23'!G3</f>
         <v>225</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F15" s="97">
         <f>'26.01.23'!H3</f>
         <v>200</v>
       </c>
-      <c r="G12" s="102">
+      <c r="G15" s="97">
         <f>'26.01.23'!I3</f>
         <v>175</v>
       </c>
-      <c r="H12" s="102">
+      <c r="H15" s="97">
         <f>'26.01.23'!J3</f>
         <v>180</v>
       </c>
-      <c r="I12" s="102">
+      <c r="I15" s="97">
         <f>'26.01.23'!K3</f>
         <v>170</v>
       </c>
-      <c r="J12" s="102">
+      <c r="J15" s="97">
         <f>'26.01.23'!L3</f>
         <v>140</v>
       </c>
-      <c r="K12" s="102">
+      <c r="K15" s="97">
         <f>'26.01.23'!M3</f>
         <v>228</v>
       </c>
-      <c r="L12" s="102">
+      <c r="L15" s="97">
         <f>'26.01.23'!N3</f>
         <v>285</v>
       </c>
-      <c r="M12" s="102">
+      <c r="M15" s="97">
         <f>'26.01.23'!O3</f>
         <v>209</v>
       </c>
-      <c r="N12" s="102">
+      <c r="N15" s="97">
         <f>'26.01.23'!P3</f>
         <v>245</v>
       </c>
-      <c r="O12" s="102">
+      <c r="O15" s="97">
         <f>'26.01.23'!Q3</f>
         <v>430</v>
       </c>
-      <c r="P12" s="102">
+      <c r="P15" s="97">
         <f>'26.01.23'!R3</f>
         <v>255</v>
       </c>
-      <c r="Q12" s="102">
+      <c r="Q15" s="97">
         <f>'26.01.23'!S3</f>
         <v>170</v>
       </c>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="96"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="102">
-        <f>'22.01.23'!D3</f>
-        <v>275</v>
-      </c>
-      <c r="C13" s="102">
-        <f>'22.01.23'!E3</f>
-        <v>525</v>
-      </c>
-      <c r="D13" s="102">
-        <f>'22.01.23'!F3</f>
-        <v>175</v>
-      </c>
-      <c r="E13" s="102">
-        <f>'22.01.23'!G3</f>
-        <v>225</v>
-      </c>
-      <c r="F13" s="102">
-        <f>'22.01.23'!H3</f>
-        <v>200</v>
-      </c>
-      <c r="G13" s="102">
-        <f>'22.01.23'!I3</f>
-        <v>175</v>
-      </c>
-      <c r="H13" s="102">
-        <f>'22.01.23'!J3</f>
-        <v>175</v>
-      </c>
-      <c r="I13" s="102">
-        <f>'22.01.23'!K3</f>
-        <v>170</v>
-      </c>
-      <c r="J13" s="102">
-        <f>'22.01.23'!L3</f>
-        <v>140</v>
-      </c>
-      <c r="K13" s="102">
-        <f>'22.01.23'!M3</f>
-        <v>228</v>
-      </c>
-      <c r="L13" s="102">
-        <f>'22.01.23'!N3</f>
-        <v>285</v>
-      </c>
-      <c r="M13" s="102">
-        <f>'22.01.23'!O3</f>
-        <v>209</v>
-      </c>
-      <c r="N13" s="102">
-        <f>'22.01.23'!P3</f>
-        <v>245</v>
-      </c>
-      <c r="O13" s="102">
-        <f>'22.01.23'!Q3</f>
-        <v>430</v>
-      </c>
-      <c r="P13" s="102">
-        <f>'22.01.23'!R3</f>
-        <v>255</v>
-      </c>
-      <c r="Q13" s="102">
-        <f>'25.01.23'!S3</f>
-        <v>170</v>
-      </c>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="102">
-        <f>'25.01.23'!D3</f>
-        <v>275</v>
-      </c>
-      <c r="C14" s="102">
-        <f>'25.01.23'!E3</f>
-        <v>525</v>
-      </c>
-      <c r="D14" s="102">
-        <f>'25.01.23'!F3</f>
-        <v>175</v>
-      </c>
-      <c r="E14" s="102">
-        <f>'25.01.23'!G3</f>
-        <v>225</v>
-      </c>
-      <c r="F14" s="102">
-        <f>'25.01.23'!H3</f>
-        <v>200</v>
-      </c>
-      <c r="G14" s="102">
-        <f>'25.01.23'!I3</f>
-        <v>175</v>
-      </c>
-      <c r="H14" s="102">
-        <f>'25.01.23'!J3</f>
-        <v>180</v>
-      </c>
-      <c r="I14" s="102">
-        <f>'25.01.23'!K3</f>
-        <v>170</v>
-      </c>
-      <c r="J14" s="102">
-        <f>'25.01.23'!L3</f>
-        <v>140</v>
-      </c>
-      <c r="K14" s="102">
-        <f>'25.01.23'!M3</f>
-        <v>228</v>
-      </c>
-      <c r="L14" s="102">
-        <f>'25.01.23'!N3</f>
-        <v>285</v>
-      </c>
-      <c r="M14" s="102">
-        <f>'25.01.23'!O3</f>
-        <v>209</v>
-      </c>
-      <c r="N14" s="102">
-        <f>'25.01.23'!P3</f>
-        <v>245</v>
-      </c>
-      <c r="O14" s="102">
-        <f>'25.01.23'!Q3</f>
-        <v>430</v>
-      </c>
-      <c r="P14" s="102">
-        <f>'25.01.23'!R3</f>
-        <v>255</v>
-      </c>
-      <c r="Q14" s="102">
-        <f>'25.01.23'!S3</f>
-        <v>170</v>
-      </c>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="97"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="102">
-        <f>'26.01.23'!D3</f>
-        <v>275</v>
-      </c>
-      <c r="C15" s="102">
-        <f>'26.01.23'!E3</f>
-        <v>525</v>
-      </c>
-      <c r="D15" s="102">
-        <f>'26.01.23'!F3</f>
-        <v>175</v>
-      </c>
-      <c r="E15" s="102">
-        <f>'26.01.23'!G3</f>
-        <v>225</v>
-      </c>
-      <c r="F15" s="102">
-        <f>'26.01.23'!H3</f>
-        <v>200</v>
-      </c>
-      <c r="G15" s="102">
-        <f>'26.01.23'!I3</f>
-        <v>175</v>
-      </c>
-      <c r="H15" s="102">
-        <f>'26.01.23'!J3</f>
-        <v>180</v>
-      </c>
-      <c r="I15" s="102">
-        <f>'26.01.23'!K3</f>
-        <v>170</v>
-      </c>
-      <c r="J15" s="102">
-        <f>'26.01.23'!L3</f>
-        <v>140</v>
-      </c>
-      <c r="K15" s="102">
-        <f>'26.01.23'!M3</f>
-        <v>228</v>
-      </c>
-      <c r="L15" s="102">
-        <f>'26.01.23'!N3</f>
-        <v>285</v>
-      </c>
-      <c r="M15" s="102">
-        <f>'26.01.23'!O3</f>
-        <v>209</v>
-      </c>
-      <c r="N15" s="102">
-        <f>'26.01.23'!P3</f>
-        <v>245</v>
-      </c>
-      <c r="O15" s="102">
-        <f>'26.01.23'!Q3</f>
-        <v>430</v>
-      </c>
-      <c r="P15" s="102">
-        <f>'26.01.23'!R3</f>
-        <v>255</v>
-      </c>
-      <c r="Q15" s="102">
-        <f>'26.01.23'!S3</f>
-        <v>170</v>
-      </c>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="96"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="V16" s="2"/>
     </row>
     <row r="17" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="97"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="2"/>
     </row>
     <row r="18" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="100"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="96"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="V18" s="2"/>
     </row>
     <row r="19" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
     </row>
     <row r="20" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
     </row>
     <row r="21" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D21" s="96"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="94"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="91"/>
     </row>
     <row r="22" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
     </row>
     <row r="23" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
     </row>
     <row r="29" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="91"/>
     </row>
     <row r="30" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
     </row>
     <row r="31" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
     </row>
     <row r="32" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="100"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
     </row>
     <row r="33" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="99"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
     </row>
     <row r="34" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="100"/>
-      <c r="R34" s="100"/>
-      <c r="S34" s="100"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
     </row>
     <row r="35" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="100"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="100"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
     </row>
     <row r="36" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="100"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="100"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -5950,42 +5314,42 @@
     <row r="2" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B3" s="11">
         <v>180</v>
@@ -6016,7 +5380,7 @@
         <v>220</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L3" s="31">
         <v>200</v>
@@ -6024,7 +5388,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B4" s="7">
         <v>140</v>
@@ -6063,7 +5427,7 @@
     </row>
     <row r="5" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B5" s="24">
         <f>1-'15.03.22'!B3/B4</f>
@@ -6112,7 +5476,7 @@
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7">
         <v>110</v>
@@ -6151,7 +5515,7 @@
     </row>
     <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B7" s="7">
         <v>100</v>
@@ -6190,14 +5554,14 @@
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -6208,7 +5572,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B9" s="15">
         <v>270</v>
@@ -6228,10 +5592,10 @@
         <v>250</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J9" s="15">
         <v>400</v>
@@ -6240,117 +5604,117 @@
         <v>250</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="58.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
-        <v>27</v>
+      <c r="A10" s="100" t="s">
+        <v>38</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="58.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="20" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E11" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="G11" s="20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="92"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="20" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -6359,7 +5723,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L13" s="21"/>
     </row>
@@ -6430,42 +5794,42 @@
     <row r="1" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11">
         <v>200</v>
@@ -6496,7 +5860,7 @@
         <v>220</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L2" s="31">
         <v>200</v>
@@ -6504,7 +5868,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>160</v>
@@ -6543,7 +5907,7 @@
     </row>
     <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B4" s="24">
         <f>1-'22.03.22'!B4/B3</f>
@@ -6592,7 +5956,7 @@
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7">
         <v>110</v>
@@ -6631,7 +5995,7 @@
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
@@ -6670,14 +6034,14 @@
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -6688,7 +6052,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="15">
         <v>270</v>
@@ -6697,20 +6061,20 @@
         <v>400</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E8" s="15">
         <v>450</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J8" s="15">
         <v>400</v>
@@ -6719,117 +6083,117 @@
         <v>250</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="58" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
-        <v>27</v>
+      <c r="A9" s="100" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="58" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="92"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="20" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" s="20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="20" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -6838,7 +6202,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L12" s="21"/>
     </row>
@@ -6909,45 +6273,45 @@
     <row r="1" spans="1:13" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11">
         <v>200</v>
@@ -6980,7 +6344,7 @@
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="31" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M2" s="31">
         <v>200</v>
@@ -6988,7 +6352,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>160</v>
@@ -7028,7 +6392,7 @@
     </row>
     <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B4" s="24">
         <f>1-'9.04.22'!B3/B3</f>
@@ -7078,7 +6442,7 @@
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7">
         <v>110</v>
@@ -7118,7 +6482,7 @@
     </row>
     <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
@@ -7158,14 +6522,14 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -7177,7 +6541,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="15">
         <v>350</v>
@@ -7201,7 +6565,7 @@
         <v>340</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J8" s="15">
         <v>400</v>
@@ -7211,120 +6575,120 @@
         <v>250</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
-        <v>27</v>
+      <c r="A9" s="100" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="58" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="92"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="20" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" s="20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="20" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="29.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -7334,7 +6698,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M12" s="21"/>
     </row>
@@ -7409,42 +6773,42 @@
     <row r="1" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11">
         <v>200</v>
@@ -7476,7 +6840,7 @@
         <v>220</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L2" s="31">
         <v>200</v>
@@ -7484,7 +6848,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>160</v>
@@ -7523,7 +6887,7 @@
     </row>
     <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B4" s="24">
         <f>1-'10.05.22'!B3/B3</f>
@@ -7572,7 +6936,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7">
         <v>110</v>
@@ -7611,7 +6975,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
@@ -7650,14 +7014,14 @@
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -7668,7 +7032,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="15">
         <v>350</v>
@@ -7692,7 +7056,7 @@
         <v>340</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J8" s="15">
         <v>400</v>
@@ -7701,117 +7065,117 @@
         <v>250</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
-        <v>27</v>
+      <c r="A9" s="100" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="20" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" s="20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="20" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -7820,7 +7184,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L12" s="21"/>
     </row>
@@ -7892,45 +7256,45 @@
     <row r="1" spans="1:13" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11">
         <v>200</v>
@@ -7963,7 +7327,7 @@
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="31" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M2" s="31">
         <v>200</v>
@@ -7971,7 +7335,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>160</v>
@@ -8011,7 +7375,7 @@
     </row>
     <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B4" s="24">
         <f>1-'23.05.22 '!B3/B3</f>
@@ -8061,7 +7425,7 @@
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7">
         <v>110</v>
@@ -8101,7 +7465,7 @@
     </row>
     <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
@@ -8141,14 +7505,14 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -8160,7 +7524,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="15">
         <v>350</v>
@@ -8185,7 +7549,7 @@
         <v>340</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J8" s="15">
         <v>400</v>
@@ -8195,120 +7559,120 @@
         <v>250</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
-        <v>27</v>
+      <c r="A9" s="100" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="58" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="92"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="20" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" s="20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="20" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="29.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -8318,7 +7682,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M12" s="21"/>
     </row>
@@ -8394,45 +7758,45 @@
     <row r="1" spans="1:13" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11">
         <v>200</v>
@@ -8457,14 +7821,14 @@
         <v>260</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J2" s="11">
         <v>220</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="31" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M2" s="31">
         <v>200</v>
@@ -8472,7 +7836,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>160</v>
@@ -8511,7 +7875,7 @@
     </row>
     <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B4" s="24">
         <f>1-'15.06.22'!B3/B3</f>
@@ -8561,14 +7925,14 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -8580,7 +7944,7 @@
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B6" s="15">
         <v>350</v>
@@ -8605,7 +7969,7 @@
         <v>340</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J6" s="15">
         <v>400</v>
@@ -8615,120 +7979,120 @@
         <v>250</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
-        <v>27</v>
+      <c r="A7" s="100" t="s">
+        <v>38</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="20" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="G8" s="20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="92"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="20" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -8738,7 +8102,7 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M10" s="21"/>
     </row>
@@ -8785,40 +8149,40 @@
     <row r="19" spans="1:13" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="42" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="H19" s="13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -9715,45 +9079,45 @@
     <row r="1" spans="1:13" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="61" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11">
         <v>200</v>
@@ -9778,14 +9142,14 @@
         <v>260</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J2" s="11">
         <v>220</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="31" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M2" s="31">
         <v>200</v>
@@ -9793,7 +9157,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>160</v>
@@ -9832,7 +9196,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -9849,7 +9213,7 @@
     </row>
     <row r="5" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -9917,14 +9281,14 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -9936,7 +9300,7 @@
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="15">
         <v>350</v>
@@ -9961,7 +9325,7 @@
         <v>340</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J8" s="15">
         <v>400</v>
@@ -9971,120 +9335,120 @@
         <v>250</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
-        <v>27</v>
+      <c r="A9" s="100" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="20" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" s="20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="20" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -10094,7 +9458,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="M12" s="21"/>
     </row>
@@ -10154,8 +9518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10166,63 +9530,63 @@
     <row r="1" spans="1:19" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M1" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="71" t="s">
-        <v>92</v>
-      </c>
       <c r="R1" s="71" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S1" s="72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7">
         <f>MIN(D2:S2)</f>
@@ -10248,10 +9612,10 @@
         <v>220</v>
       </c>
       <c r="J2" s="83" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L2" s="84">
         <v>200</v>
@@ -10280,7 +9644,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <f>MIN(D3:S3)</f>
@@ -10359,7 +9723,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -10382,7 +9746,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="87" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B6" s="7">
         <f>'4.07.22'!B20</f>
@@ -10429,7 +9793,7 @@
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7">
         <f>MIN(D8:S8)</f>
@@ -10437,19 +9801,19 @@
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I8" s="89">
         <v>420</v>
@@ -10458,7 +9822,7 @@
         <v>400</v>
       </c>
       <c r="K8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L8" s="90">
         <v>250</v>
@@ -10479,7 +9843,7 @@
         <v>500</v>
       </c>
       <c r="R8" s="80" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="S8" s="81">
         <v>350</v>
@@ -10494,8 +9858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N3"/>
+    <sheetView topLeftCell="J1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10506,63 +9870,63 @@
     <row r="1" spans="1:19" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M1" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="71" t="s">
-        <v>92</v>
-      </c>
       <c r="R1" s="71" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S1" s="72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7">
         <f>MIN(D2:S2)</f>
@@ -10588,10 +9952,10 @@
         <v>220</v>
       </c>
       <c r="J2" s="83" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L2" s="84">
         <v>200</v>
@@ -10620,7 +9984,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <f>MIN(D3:S3)</f>
@@ -10699,7 +10063,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -10722,7 +10086,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="87" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B6" s="7">
         <f>B3- '22.01.23'!B3</f>
@@ -10817,7 +10181,7 @@
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7">
         <f>MIN(D8:S8)</f>
@@ -10825,19 +10189,19 @@
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I8" s="89">
         <v>420</v>
@@ -10846,7 +10210,7 @@
         <v>400</v>
       </c>
       <c r="K8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L8" s="90">
         <v>250</v>
@@ -10867,7 +10231,7 @@
         <v>500</v>
       </c>
       <c r="R8" s="79" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="S8" s="81">
         <v>350</v>
@@ -10883,7 +10247,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10894,63 +10258,63 @@
     <row r="1" spans="1:19" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M1" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="71" t="s">
-        <v>92</v>
-      </c>
       <c r="R1" s="71" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S1" s="72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7">
         <f>MIN(D2:S2)</f>
@@ -10976,10 +10340,10 @@
         <v>220</v>
       </c>
       <c r="J2" s="83" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L2" s="84">
         <v>200</v>
@@ -11010,7 +10374,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <f>MIN(D3:S3)</f>
@@ -11091,7 +10455,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -11114,7 +10478,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="87" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B6" s="7">
         <f>B3-'22.01.23'!B3</f>
@@ -11209,7 +10573,7 @@
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7">
         <f>MIN(D8:S8)</f>
@@ -11217,19 +10581,19 @@
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I8" s="89">
         <v>420</v>
@@ -11238,7 +10602,7 @@
         <v>350</v>
       </c>
       <c r="K8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L8" s="90">
         <v>250</v>
@@ -11261,7 +10625,7 @@
         <v>500</v>
       </c>
       <c r="R8" s="79" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="S8" s="81">
         <v>350</v>
@@ -11290,22 +10654,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -11313,7 +10677,7 @@
         <v>44894</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>19</v>
@@ -11333,7 +10697,7 @@
         <v>44894</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>19</v>
@@ -11353,10 +10717,10 @@
         <v>44894</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -11373,7 +10737,7 @@
         <v>44896</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -11394,7 +10758,7 @@
         <v>44896</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -11415,10 +10779,10 @@
         <v>44896</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -11442,8 +10806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView topLeftCell="I1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11454,63 +10818,63 @@
     <row r="1" spans="1:19" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="42" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M1" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="71" t="s">
-        <v>92</v>
-      </c>
       <c r="R1" s="71" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S1" s="72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7">
         <f>MIN(D2:S2)</f>
@@ -11536,10 +10900,10 @@
         <v>220</v>
       </c>
       <c r="J2" s="83" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K2" s="83" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L2" s="84">
         <v>200</v>
@@ -11551,14 +10915,14 @@
         <v>323</v>
       </c>
       <c r="O2" s="74">
-        <f>'22.01.23'!O2</f>
+        <f>'25.01.23'!O2</f>
         <v>249</v>
       </c>
       <c r="P2" s="74">
         <v>265</v>
       </c>
       <c r="Q2" s="74">
-        <f>'22.01.23'!Q2</f>
+        <f>'25.01.23'!Q2</f>
         <v>449</v>
       </c>
       <c r="R2" s="74">
@@ -11570,7 +10934,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="85" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <f>MIN(D3:S3)</f>
@@ -11611,14 +10975,14 @@
         <v>285</v>
       </c>
       <c r="O3" s="68">
-        <f>'22.01.23'!O3</f>
+        <f>'25.01.23'!O3</f>
         <v>209</v>
       </c>
       <c r="P3" s="68">
         <v>245</v>
       </c>
       <c r="Q3" s="68">
-        <f>'22.01.23'!Q3</f>
+        <f>'25.01.23'!Q3</f>
         <v>430</v>
       </c>
       <c r="R3" s="68">
@@ -11651,7 +11015,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -11674,75 +11038,75 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="87" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B6" s="7">
-        <f>B3-'22.01.23'!B3</f>
+        <f>B3-'25.01.23'!B3</f>
         <v>0</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7">
-        <f>D3-'22.01.23'!D3</f>
+        <f>D3-'25.01.23'!D3</f>
         <v>0</v>
       </c>
       <c r="E6" s="7">
-        <f>E3-'22.01.23'!E3</f>
+        <f>E3-'25.01.23'!E3</f>
         <v>0</v>
       </c>
       <c r="F6" s="7">
-        <f>F3-'22.01.23'!F3</f>
+        <f>F3-'25.01.23'!F3</f>
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <f>G3-'22.01.23'!G3</f>
+        <f>G3-'25.01.23'!G3</f>
         <v>0</v>
       </c>
       <c r="H6" s="7">
-        <f>H3-'22.01.23'!H3</f>
+        <f>H3-'25.01.23'!H3</f>
         <v>0</v>
       </c>
       <c r="I6" s="7">
-        <f>I3-'22.01.23'!I3</f>
+        <f>I3-'25.01.23'!I3</f>
         <v>0</v>
       </c>
       <c r="J6" s="7">
-        <f>J3-'22.01.23'!J3</f>
-        <v>5</v>
+        <f>J3-'25.01.23'!J3</f>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
-        <f>K3-'22.01.23'!K3</f>
+        <f>K3-'25.01.23'!K3</f>
         <v>0</v>
       </c>
       <c r="L6" s="7">
-        <f>L3-'22.01.23'!L3</f>
+        <f>L3-'25.01.23'!L3</f>
         <v>0</v>
       </c>
       <c r="M6" s="7">
-        <f>M3-'22.01.23'!M3</f>
+        <f>M3-'25.01.23'!M3</f>
         <v>0</v>
       </c>
       <c r="N6" s="7">
-        <f>N3-'22.01.23'!N3</f>
+        <f>N3-'25.01.23'!N3</f>
         <v>0</v>
       </c>
       <c r="O6" s="7">
-        <f>O3-'22.01.23'!O3</f>
+        <f>O3-'25.01.23'!O3</f>
         <v>0</v>
       </c>
       <c r="P6" s="7">
-        <f>P3-'22.01.23'!P3</f>
+        <f>P3-'25.01.23'!P3</f>
         <v>0</v>
       </c>
       <c r="Q6" s="7">
-        <f>Q3-'22.01.23'!Q3</f>
+        <f>Q3-'25.01.23'!Q3</f>
         <v>0</v>
       </c>
       <c r="R6" s="7">
-        <f>R3-'22.01.23'!R3</f>
+        <f>R3-'25.01.23'!R3</f>
         <v>0</v>
       </c>
       <c r="S6" s="7">
-        <f>S3-'22.01.23'!S3</f>
+        <f>S3-'25.01.23'!S3</f>
         <v>0</v>
       </c>
     </row>
@@ -11769,7 +11133,7 @@
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7">
         <f>MIN(D8:S8)</f>
@@ -11777,19 +11141,19 @@
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I8" s="89">
         <v>420</v>
@@ -11798,7 +11162,7 @@
         <v>350</v>
       </c>
       <c r="K8" s="89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L8" s="90">
         <v>250</v>
@@ -11810,18 +11174,18 @@
         <v>290</v>
       </c>
       <c r="O8" s="79">
-        <f>'22.01.23'!O8</f>
+        <f>'25.01.23'!O8</f>
         <v>500</v>
       </c>
       <c r="P8" s="79">
         <v>500</v>
       </c>
       <c r="Q8" s="79">
-        <f>'22.01.23'!Q8</f>
+        <f>'25.01.23'!Q8</f>
         <v>500</v>
       </c>
       <c r="R8" s="79" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="S8" s="81">
         <v>350</v>
@@ -11851,7 +11215,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B1" s="36">
         <f>'СБОР ДАННЫХ'!A6</f>
@@ -11860,7 +11224,7 @@
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B2" s="36">
         <f>'СБОР ДАННЫХ'!A3</f>
@@ -11870,44 +11234,44 @@
     <row r="3" spans="1:14" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="L3" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -11928,7 +11292,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -11949,7 +11313,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -11970,7 +11334,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -11991,7 +11355,7 @@
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -12011,13 +11375,13 @@
       <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
-        <v>27</v>
+      <c r="A9" s="100" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -12031,11 +11395,11 @@
       <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -12049,11 +11413,11 @@
       <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:14" ht="174" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -12067,7 +11431,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -12152,31 +11516,31 @@
     <row r="1" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" s="27" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -12347,70 +11711,70 @@
     <row r="1" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>119</v>
@@ -12442,7 +11806,7 @@
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B4" s="7">
         <v>110</v>
@@ -12460,7 +11824,7 @@
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B5" s="7">
         <v>100</v>
@@ -12478,7 +11842,7 @@
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -12494,7 +11858,7 @@
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -12509,8 +11873,8 @@
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
-        <v>27</v>
+      <c r="A8" s="100" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -12525,7 +11889,7 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -12539,7 +11903,7 @@
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="92"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -12553,7 +11917,7 @@
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -12631,38 +11995,38 @@
     <row r="1" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11">
         <v>160</v>
@@ -12694,7 +12058,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>140</v>
@@ -12726,14 +12090,14 @@
     </row>
     <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B4" s="24">
         <f>1-'02.18'!B3/B3</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D4" s="24">
         <f>1-'02.18'!D3/D3</f>
@@ -12752,7 +12116,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I4" s="24">
         <f>1-'02.18'!I3/I3</f>
@@ -12763,15 +12127,15 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7">
         <v>110</v>
@@ -12789,7 +12153,7 @@
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
@@ -12807,7 +12171,7 @@
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -12823,7 +12187,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="15">
         <v>250</v>
@@ -12855,8 +12219,8 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
-        <v>27</v>
+      <c r="A9" s="100" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -12871,7 +12235,7 @@
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -12885,7 +12249,7 @@
       <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -12899,7 +12263,7 @@
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -12980,23 +12344,23 @@
         <v>44743</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G1" s="39">
         <v>44805</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -13019,7 +12383,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>160</v>
@@ -13042,7 +12406,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>140</v>
@@ -13065,7 +12429,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>120</v>
@@ -13093,7 +12457,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="40"/>
@@ -13101,7 +12465,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>230</v>
@@ -13124,7 +12488,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -13147,7 +12511,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>180</v>
@@ -13170,7 +12534,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>160</v>
@@ -13217,42 +12581,42 @@
     <row r="1" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11">
         <v>180</v>
@@ -13283,7 +12647,7 @@
         <v>200</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L2" s="11">
         <v>200</v>
@@ -13291,7 +12655,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>140</v>
@@ -13329,7 +12693,7 @@
     </row>
     <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B4" s="24">
         <f>1-'27.04.21'!B3/B3</f>
@@ -13356,7 +12720,7 @@
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I4" s="24">
         <f>1-'27.04.21'!I3/I3</f>
@@ -13367,15 +12731,15 @@
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7">
         <v>110</v>
@@ -13414,7 +12778,7 @@
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
@@ -13453,14 +12817,14 @@
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -13471,7 +12835,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="15">
         <v>270</v>
@@ -13491,10 +12855,10 @@
         <v>250</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J8" s="15">
         <v>400</v>
@@ -13503,117 +12867,117 @@
         <v>250</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
-        <v>27</v>
+      <c r="A9" s="100" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="8" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -13622,7 +12986,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L12" s="9"/>
     </row>
@@ -13693,42 +13057,42 @@
     <row r="1" spans="1:12" s="5" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11">
         <v>180</v>
@@ -13759,7 +13123,7 @@
         <v>220</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L2" s="11">
         <v>200</v>
@@ -13767,7 +13131,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7">
         <v>140</v>
@@ -13806,7 +13170,7 @@
     </row>
     <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B4" s="24">
         <f>1-'27.01.22'!B3/B3</f>
@@ -13855,7 +13219,7 @@
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7">
         <v>110</v>
@@ -13894,7 +13258,7 @@
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
@@ -13933,14 +13297,14 @@
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="29" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -13951,7 +13315,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8" s="15">
         <v>270</v>
@@ -13971,10 +13335,10 @@
         <v>250</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J8" s="15">
         <v>400</v>
@@ -13983,117 +13347,117 @@
         <v>250</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
-        <v>27</v>
+      <c r="A9" s="100" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" s="20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="8" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="9" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -14102,7 +13466,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L12" s="21"/>
     </row>
